--- a/study2/order_study_data.xlsx
+++ b/study2/order_study_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciangoon/thinkinghats/study2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F6641-D3AC-B345-82AC-74D96DDE7043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01CA889-8E47-724B-9D05-1E717EFF1780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" activeTab="1" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>pid</t>
   </si>
@@ -105,29 +105,44 @@
     <t>se util</t>
   </si>
   <si>
-    <t>First Design Originality</t>
-  </si>
-  <si>
-    <t>First Design Utility</t>
-  </si>
-  <si>
-    <t>Second Design Originality</t>
-  </si>
-  <si>
-    <t>Second Design Utility</t>
-  </si>
-  <si>
     <t>Originality</t>
   </si>
   <si>
     <t>Utility</t>
+  </si>
+  <si>
+    <t>First Design</t>
+  </si>
+  <si>
+    <t>Second Design</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>diff_orig</t>
+  </si>
+  <si>
+    <t>diff_util</t>
+  </si>
+  <si>
+    <t>sum_t1</t>
+  </si>
+  <si>
+    <t>sum_t2</t>
+  </si>
+  <si>
+    <t>sum_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,7 +238,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$2</c:f>
+              <c:f>Sheet2!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -248,527 +263,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet2!$G$2:$J$2</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.18</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.18</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.18</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet2!$G$2:$J$2</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.18</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.18</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.18</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>First Design Originality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>First Design Utility</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Second Design Originality</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Second Design Utility</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.82</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62CC-9E49-8855-940323293D01}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>green</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet2!$G$3:$J$3</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.17</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet2!$G$3:$J$3</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.17</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.19</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>First Design Originality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>First Design Utility</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Second Design Originality</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Second Design Utility</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.2391304347826089</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.652173913043478</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0652173913043477</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7391304347826089</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-62CC-9E49-8855-940323293D01}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="112"/>
-        <c:overlap val="-8"/>
-        <c:axId val="1120220464"/>
-        <c:axId val="1120341312"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1120220464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1120341312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1120341312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600">
-                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t>Average Rating</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="8.8261253309796991E-3"/>
-              <c:y val="0.31118954201420379"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1120220464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>blue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet2!$E$7:$F$7</c:f>
+                <c:f>Sheet2!$E$12:$F$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -783,7 +278,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet2!$E$7:$F$7</c:f>
+                <c:f>Sheet2!$E$12:$F$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -812,7 +307,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$6:$C$6</c:f>
+              <c:f>Sheet2!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -826,7 +321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$7:$C$7</c:f>
+              <c:f>Sheet2!$B$12:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -850,7 +345,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$8</c:f>
+              <c:f>Sheet2!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -875,7 +370,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet2!$E$8:$F$8</c:f>
+                <c:f>Sheet2!$E$13:$F$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -890,7 +385,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet2!$E$8:$F$8</c:f>
+                <c:f>Sheet2!$E$13:$F$13</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -919,7 +414,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$6:$C$6</c:f>
+              <c:f>Sheet2!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -933,7 +428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$8:$C$8</c:f>
+              <c:f>Sheet2!$B$13:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1136,6 +631,543 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1604302864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$G$2:$G$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$G$2:$G$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.18</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$2:$B$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>First Design</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Second Design</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>First Design</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Second Design</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Originality</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Utility</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-665B-1E48-8D84-E0E739A454CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Green</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$H$2:$H$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.19</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$H$2:$H$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.17</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.19</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$2:$B$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>First Design</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Second Design</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>First Design</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Second Design</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Originality</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Utility</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2391304347826089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0652173913043477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.652173913043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7391304347826089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-665B-1E48-8D84-E0E739A454CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="162"/>
+        <c:overlap val="-7"/>
+        <c:axId val="1088128512"/>
+        <c:axId val="1087823760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1088128512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087823760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1087823760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> Rating</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088128512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2282,23 +2314,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>591811</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>460146</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>356862</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63728</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>164277</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3008597F-D584-0F40-8886-EE434DD885C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5F0F04-F886-2A47-8B1D-059AF5A8AFC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,283 +2350,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292063</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>208153</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>316803</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>33011</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134873</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Left Brace 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E573B2-68A7-B144-8032-8210B13356E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2153023" y="2296753"/>
-          <a:ext cx="136061" cy="564355"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>375494</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>46045</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>774107</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D36CA7-FD27-6440-876A-BCAD6FE298AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2022307" y="2348792"/>
-          <a:ext cx="398613" cy="172260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>**</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>160880</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>124277</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>673196</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>81798</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F7E05F-3721-1940-85FA-1FA8362D968B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20441495">
-          <a:off x="1807693" y="2636365"/>
-          <a:ext cx="1335723" cy="376202"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>Explore-first</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>480142</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>77014</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>167421</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>39934</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA67ACDF-CABD-734D-8BD7-0FD186AC0FFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20441495">
-          <a:off x="1303549" y="3426465"/>
-          <a:ext cx="1334092" cy="381601"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>Exploit-first</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142351</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>128671</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>446593</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>55824</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195386</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>125604</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5F0F04-F886-2A47-8B1D-059AF5A8AFC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB18FD0-9BFF-4144-A472-3B4BFF0AB575}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,12 +2391,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.26083</cdr:x>
-      <cdr:y>0.08519</cdr:y>
+      <cdr:x>0.25141</cdr:x>
+      <cdr:y>0.09076</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.39004</cdr:x>
-      <cdr:y>0.11118</cdr:y>
+      <cdr:x>0.3828</cdr:x>
+      <cdr:y>0.12064</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2639,8 +2411,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
-          <a:off x="2172967" y="82057"/>
-          <a:ext cx="139558" cy="890415"/>
+          <a:off x="2395647" y="93833"/>
+          <a:ext cx="171907" cy="1028255"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="leftBrace">
           <a:avLst/>
@@ -2769,11 +2541,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.3</cdr:x>
+      <cdr:x>0.28909</cdr:x>
       <cdr:y>0.05884</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35784</cdr:x>
+      <cdr:x>0.34693</cdr:x>
       <cdr:y>0.09092</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -2789,8 +2561,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2067470" y="315964"/>
-          <a:ext cx="398613" cy="172260"/>
+          <a:off x="2262341" y="338433"/>
+          <a:ext cx="452640" cy="184516"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2914,7 +2686,7 @@
             <a:rPr lang="en-US" sz="1600" b="1">
               <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>**</a:t>
+            <a:t>*</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -2923,11 +2695,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.28709</cdr:x>
-      <cdr:y>0.10199</cdr:y>
+      <cdr:y>0.11556</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.48091</cdr:x>
-      <cdr:y>0.17205</cdr:y>
+      <cdr:y>0.18562</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2942,8 +2714,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20441495">
-          <a:off x="1978460" y="547712"/>
-          <a:ext cx="1335723" cy="376202"/>
+          <a:off x="2258317" y="651718"/>
+          <a:ext cx="1524633" cy="395130"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3075,12 +2847,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.16128</cdr:x>
-      <cdr:y>0.21794</cdr:y>
+      <cdr:x>0.14766</cdr:x>
+      <cdr:y>0.22337</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35487</cdr:x>
-      <cdr:y>0.289</cdr:y>
+      <cdr:x>0.34125</cdr:x>
+      <cdr:y>0.29443</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3095,8 +2867,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20441495">
-          <a:off x="1111459" y="1170340"/>
-          <a:ext cx="1334092" cy="381601"/>
+          <a:off x="1161558" y="1259758"/>
+          <a:ext cx="1522824" cy="400770"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3229,8 +3001,618 @@
 </c:userShapes>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16763</cdr:x>
+      <cdr:y>0.07226</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23679</cdr:x>
+      <cdr:y>0.09387</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Left Brace 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11622D5B-5002-A944-84F4-400F3240E3D0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="1910289" y="200252"/>
+          <a:ext cx="140193" cy="677270"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18007</cdr:x>
+      <cdr:y>0.04223</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.22654</cdr:x>
+      <cdr:y>0.07017</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D2A402-168B-E24A-ABD0-0F053FAE8530}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1763592" y="273964"/>
+          <a:ext cx="455089" cy="181303"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>**</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1572</cdr:x>
+      <cdr:y>0.09632</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.31291</cdr:x>
+      <cdr:y>0.15735</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C6BB83-5F2C-7A4C-97D2-5BB909428181}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20441495">
+          <a:off x="1539606" y="624940"/>
+          <a:ext cx="1524988" cy="395952"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Explore-first</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07957</cdr:x>
+      <cdr:y>0.24686</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23509</cdr:x>
+      <cdr:y>0.30876</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828390A4-8D24-D04F-9203-4A766579FCC1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20441495">
+          <a:off x="779243" y="1601568"/>
+          <a:ext cx="1523178" cy="401603"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Exploit-first</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3530,17 +3912,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C0338E-C052-8145-A484-36452DDC74C2}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3566,37 +3948,52 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>7</v>
       </c>
@@ -3624,7 +4021,8 @@
         <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>3</v>
+        <f>SUM(G2:H2)</f>
+        <v>6.5</v>
       </c>
       <c r="J2" s="2">
         <v>3</v>
@@ -3633,34 +4031,53 @@
         <v>3</v>
       </c>
       <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <f>AVERAGE(I2,K2)</f>
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2</v>
       </c>
       <c r="N2">
         <f>AVERAGE(J2,L2)</f>
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(K2,M2)</f>
         <v>2.5</v>
       </c>
-      <c r="O2" s="3">
-        <f>SUM(G2,M2)</f>
+      <c r="P2">
+        <f>SUM(N2:O2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="Q2">
+        <f>N2-G2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R2">
+        <f>O2-H2</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S2" s="3">
+        <f>SUM(G2,N2)</f>
         <v>6.5</v>
       </c>
-      <c r="P2" s="3">
-        <f>SUM(H2,N2)</f>
+      <c r="T2" s="3">
+        <f>SUM(H2,O2)</f>
         <v>5.5</v>
       </c>
-      <c r="Q2">
-        <f>AVERAGE(C2,E2,I2,K2)</f>
+      <c r="U2">
+        <f>AVERAGE(C2,E2,J2,L2)</f>
         <v>3.25</v>
       </c>
-      <c r="R2">
-        <f>AVERAGE(H2,N2)</f>
+      <c r="V2">
+        <f>AVERAGE(H2,O2)</f>
         <v>2.75</v>
       </c>
+      <c r="W2">
+        <f>SUM(I2,P2)</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -3680,51 +4097,71 @@
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G49" si="0">AVERAGE(C3,E3)</f>
+        <f>AVERAGE(C3,E3)</f>
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H49" si="1">AVERAGE(D3,F3)</f>
+        <f>AVERAGE(D3,F3)</f>
         <v>2</v>
       </c>
       <c r="I3" s="2">
+        <f>SUM(G3:H3)</f>
         <v>3</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M49" si="2">AVERAGE(I3,K3)</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(J3,L3)</f>
         <v>3.5</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N49" si="3">AVERAGE(J3,L3)</f>
-        <v>2</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" ref="O3:O49" si="4">SUM(G3,M3)</f>
+      <c r="O3">
+        <f>AVERAGE(K3,M3)</f>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f>SUM(N3:O3)</f>
+        <v>5.5</v>
+      </c>
+      <c r="Q3">
+        <f>N3-G3</f>
+        <v>2.5</v>
+      </c>
+      <c r="R3">
+        <f>O3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <f>SUM(G3,N3)</f>
         <v>4.5</v>
       </c>
-      <c r="P3" s="3">
-        <f t="shared" ref="P3:P49" si="5">SUM(H3,N3)</f>
-        <v>4</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q49" si="6">AVERAGE(C3,E3,I3,K3)</f>
+      <c r="T3" s="3">
+        <f>SUM(H3,O3)</f>
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <f>AVERAGE(C3,E3,J3,L3)</f>
         <v>2.25</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R49" si="7">AVERAGE(H3,N3)</f>
-        <v>2</v>
+      <c r="V3">
+        <f>AVERAGE(H3,O3)</f>
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <f>SUM(I3,P3)</f>
+        <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>9</v>
       </c>
@@ -3744,51 +4181,71 @@
         <v>2</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C4,E4)</f>
         <v>1.5</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D4,F4)</f>
         <v>1.5</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
+        <f>SUM(G4:H4)</f>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
       <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="N4">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J4,L4)</f>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(K4,M4)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="3">
-        <f t="shared" si="4"/>
+      <c r="P4">
+        <f>SUM(N4:O4)</f>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f>N4-G4</f>
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <f>O4-H4</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S4" s="3">
+        <f>SUM(G4,N4)</f>
         <v>3.5</v>
       </c>
-      <c r="P4" s="3">
-        <f t="shared" si="5"/>
+      <c r="T4" s="3">
+        <f>SUM(H4,O4)</f>
         <v>2.5</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="6"/>
+      <c r="U4">
+        <f>AVERAGE(C4,E4,J4,L4)</f>
         <v>1.75</v>
       </c>
-      <c r="R4">
-        <f t="shared" si="7"/>
+      <c r="V4">
+        <f>AVERAGE(H4,O4)</f>
         <v>1.25</v>
       </c>
+      <c r="W4">
+        <f>SUM(I4,P4)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -3808,15 +4265,16 @@
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C5,E5)</f>
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D5,F5)</f>
         <v>2.5</v>
       </c>
       <c r="I5" s="2">
-        <v>2</v>
+        <f>SUM(G5:H5)</f>
+        <v>3.5</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -3825,34 +4283,53 @@
         <v>2</v>
       </c>
       <c r="L5" s="2">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
       </c>
       <c r="N5">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J5,L5)</f>
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(K5,M5)</f>
         <v>2.5</v>
       </c>
-      <c r="O5" s="3">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="5"/>
+      <c r="P5">
+        <f>SUM(N5:O5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q5">
+        <f>N5-G5</f>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>O5-H5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <f>SUM(G5,N5)</f>
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <f>SUM(H5,O5)</f>
         <v>5</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="6"/>
+      <c r="U5">
+        <f>AVERAGE(C5,E5,J5,L5)</f>
         <v>1.5</v>
       </c>
-      <c r="R5">
-        <f t="shared" si="7"/>
+      <c r="V5">
+        <f>AVERAGE(H5,O5)</f>
         <v>2.5</v>
       </c>
+      <c r="W5">
+        <f>SUM(I5,P5)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -3872,51 +4349,71 @@
         <v>2</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C6,E6)</f>
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D6,F6)</f>
         <v>1.5</v>
       </c>
       <c r="I6" s="2">
-        <v>3</v>
+        <f>SUM(G6:H6)</f>
+        <v>4.5</v>
       </c>
       <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
       <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
+      <c r="N6">
+        <f>AVERAGE(J6,L6)</f>
         <v>2.5</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
+      <c r="O6">
+        <f>AVERAGE(K6,M6)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="3">
-        <f t="shared" si="4"/>
+      <c r="P6">
+        <f>SUM(N6:O6)</f>
+        <v>3.5</v>
+      </c>
+      <c r="Q6">
+        <f>N6-G6</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R6">
+        <f>O6-H6</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S6" s="3">
+        <f>SUM(G6,N6)</f>
         <v>5.5</v>
       </c>
-      <c r="P6" s="3">
-        <f t="shared" si="5"/>
+      <c r="T6" s="3">
+        <f>SUM(H6,O6)</f>
         <v>2.5</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="6"/>
+      <c r="U6">
+        <f>AVERAGE(C6,E6,J6,L6)</f>
         <v>2.75</v>
       </c>
-      <c r="R6">
-        <f t="shared" si="7"/>
+      <c r="V6">
+        <f>AVERAGE(H6,O6)</f>
         <v>1.25</v>
       </c>
+      <c r="W6">
+        <f>SUM(I6,P6)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -3936,15 +4433,16 @@
         <v>3</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C7,E7)</f>
         <v>3</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D7,F7)</f>
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>3</v>
+        <f>SUM(G7:H7)</f>
+        <v>6</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -3955,32 +4453,51 @@
       <c r="L7" s="2">
         <v>3</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
+      <c r="M7" s="2">
         <v>3</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J7,L7)</f>
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(K7,M7)</f>
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f>SUM(N7:O7)</f>
         <v>6</v>
       </c>
-      <c r="P7" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q7">
+        <f>N7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>O7-H7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <f>SUM(G7,N7)</f>
         <v>6</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="T7" s="3">
+        <f>SUM(H7,O7)</f>
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <f>AVERAGE(C7,E7,J7,L7)</f>
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <f>AVERAGE(H7,O7)</f>
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <f>SUM(I7,P7)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>13</v>
       </c>
@@ -4000,51 +4517,71 @@
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C8,E8)</f>
         <v>3.5</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D8,F8)</f>
         <v>3</v>
       </c>
       <c r="I8" s="2">
-        <v>4</v>
+        <f>SUM(G8:H8)</f>
+        <v>6.5</v>
       </c>
       <c r="J8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J8,L8)</f>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(K8,M8)</f>
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <f>SUM(N8:O8)</f>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f>N8-G8</f>
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <f>O8-H8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <f>SUM(G8,N8)</f>
         <v>7.5</v>
       </c>
-      <c r="P8" s="3">
-        <f t="shared" si="5"/>
+      <c r="T8" s="3">
+        <f>SUM(H8,O8)</f>
         <v>6</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="6"/>
+      <c r="U8">
+        <f>AVERAGE(C8,E8,J8,L8)</f>
         <v>3.75</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="V8">
+        <f>AVERAGE(H8,O8)</f>
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <f>SUM(I8,P8)</f>
+        <v>13.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>14</v>
       </c>
@@ -4064,51 +4601,71 @@
         <v>4</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C9,E9)</f>
         <v>4</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D9,F9)</f>
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>4</v>
+        <f>SUM(G9:H9)</f>
+        <v>8</v>
       </c>
       <c r="J9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
         <v>4</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
+      <c r="M9" s="2">
         <v>4</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J9,L9)</f>
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(K9,M9)</f>
         <v>3.5</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" si="4"/>
+      <c r="P9">
+        <f>SUM(N9:O9)</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q9">
+        <f>N9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>O9-H9</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S9" s="3">
+        <f>SUM(G9,N9)</f>
         <v>8</v>
       </c>
-      <c r="P9" s="3">
-        <f t="shared" si="5"/>
+      <c r="T9" s="3">
+        <f>SUM(H9,O9)</f>
         <v>7.5</v>
       </c>
-      <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="7"/>
+      <c r="U9">
+        <f>AVERAGE(C9,E9,J9,L9)</f>
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <f>AVERAGE(H9,O9)</f>
         <v>3.75</v>
       </c>
+      <c r="W9">
+        <f>SUM(I9,P9)</f>
+        <v>15.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <v>15</v>
       </c>
@@ -4128,15 +4685,16 @@
         <v>2</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C10,E10)</f>
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D10,F10)</f>
         <v>2.5</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <f>SUM(G10:H10)</f>
+        <v>3.5</v>
       </c>
       <c r="J10" s="2">
         <v>2</v>
@@ -4145,34 +4703,53 @@
         <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J10,L10)</f>
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(K10,M10)</f>
         <v>2.5</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="5"/>
+      <c r="P10">
+        <f>SUM(N10:O10)</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q10">
+        <f>N10-G10</f>
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <f>O10-H10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <f>SUM(G10,N10)</f>
+        <v>3</v>
+      </c>
+      <c r="T10" s="3">
+        <f>SUM(H10,O10)</f>
         <v>5</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="6"/>
+      <c r="U10">
+        <f>AVERAGE(C10,E10,J10,L10)</f>
         <v>1.5</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="7"/>
+      <c r="V10">
+        <f>AVERAGE(H10,O10)</f>
         <v>2.5</v>
       </c>
+      <c r="W10">
+        <f>SUM(I10,P10)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -4192,51 +4769,71 @@
         <v>3</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C11,E11)</f>
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D11,F11)</f>
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>3</v>
+        <f>SUM(G11:H11)</f>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2">
         <v>3</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
+      <c r="M11" s="2">
         <v>3</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J11,L11)</f>
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <f>AVERAGE(K11,M11)</f>
         <v>2.5</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="5"/>
+      <c r="P11">
+        <f>SUM(N11:O11)</f>
         <v>5.5</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="6"/>
+        <f>N11-G11</f>
         <v>2</v>
       </c>
       <c r="R11">
-        <f t="shared" si="7"/>
+        <f>O11-H11</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S11" s="3">
+        <f>SUM(G11,N11)</f>
+        <v>4</v>
+      </c>
+      <c r="T11" s="3">
+        <f>SUM(H11,O11)</f>
+        <v>5.5</v>
+      </c>
+      <c r="U11">
+        <f>AVERAGE(C11,E11,J11,L11)</f>
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <f>AVERAGE(H11,O11)</f>
         <v>2.75</v>
       </c>
+      <c r="W11">
+        <f>SUM(I11,P11)</f>
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -4256,51 +4853,71 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C12,E12)</f>
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D12,F12)</f>
         <v>1.5</v>
       </c>
       <c r="I12" s="2">
-        <v>2</v>
+        <f>SUM(G12:H12)</f>
+        <v>3.5</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>AVERAGE(J12,L12)</f>
         <v>1.5</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
+      <c r="O12">
+        <f>AVERAGE(K12,M12)</f>
         <v>1.5</v>
       </c>
-      <c r="O12" s="3">
-        <f t="shared" si="4"/>
+      <c r="P12">
+        <f>SUM(N12:O12)</f>
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <f>N12-G12</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R12">
+        <f>O12-H12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <f>SUM(G12,N12)</f>
         <v>3.5</v>
       </c>
-      <c r="P12" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="6"/>
+      <c r="T12" s="3">
+        <f>SUM(H12,O12)</f>
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <f>AVERAGE(C12,E12,J12,L12)</f>
         <v>1.75</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="7"/>
+      <c r="V12">
+        <f>AVERAGE(H12,O12)</f>
         <v>1.5</v>
       </c>
+      <c r="W12">
+        <f>SUM(I12,P12)</f>
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>18</v>
       </c>
@@ -4320,15 +4937,16 @@
         <v>2</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C13,E13)</f>
         <v>1.5</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D13,F13)</f>
         <v>1.5</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <f>SUM(G13:H13)</f>
+        <v>3</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -4339,32 +4957,51 @@
       <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
+      <c r="M13" s="2">
         <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J13,L13)</f>
         <v>1</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" si="4"/>
+      <c r="O13">
+        <f>AVERAGE(K13,M13)</f>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>SUM(N13:O13)</f>
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <f>N13-G13</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R13">
+        <f>O13-H13</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S13" s="3">
+        <f>SUM(G13,N13)</f>
         <v>2.5</v>
       </c>
-      <c r="P13" s="3">
-        <f t="shared" si="5"/>
+      <c r="T13" s="3">
+        <f>SUM(H13,O13)</f>
         <v>2.5</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="6"/>
+      <c r="U13">
+        <f>AVERAGE(C13,E13,J13,L13)</f>
         <v>1.25</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="7"/>
+      <c r="V13">
+        <f>AVERAGE(H13,O13)</f>
         <v>1.25</v>
       </c>
+      <c r="W13">
+        <f>SUM(I13,P13)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>19</v>
       </c>
@@ -4384,51 +5021,71 @@
         <v>4</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C14,E14)</f>
         <v>4</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D14,F14)</f>
         <v>4</v>
       </c>
       <c r="I14" s="2">
-        <v>4</v>
+        <f>SUM(G14:H14)</f>
+        <v>8</v>
       </c>
       <c r="J14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" s="2">
         <v>4</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
+      <c r="M14" s="2">
         <v>4</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J14,L14)</f>
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(K14,M14)</f>
         <v>3.5</v>
       </c>
-      <c r="O14" s="3">
-        <f t="shared" si="4"/>
+      <c r="P14">
+        <f>SUM(N14:O14)</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q14">
+        <f>N14-G14</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>O14-H14</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S14" s="3">
+        <f>SUM(G14,N14)</f>
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <f t="shared" si="5"/>
+      <c r="T14" s="3">
+        <f>SUM(H14,O14)</f>
         <v>7.5</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="7"/>
+      <c r="U14">
+        <f>AVERAGE(C14,E14,J14,L14)</f>
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(H14,O14)</f>
         <v>3.75</v>
       </c>
+      <c r="W14">
+        <f>SUM(I14,P14)</f>
+        <v>15.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -4448,51 +5105,71 @@
         <v>4</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C15,E15)</f>
         <v>4</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D15,F15)</f>
         <v>3.5</v>
       </c>
       <c r="I15" s="2">
-        <v>3</v>
+        <f>SUM(G15:H15)</f>
+        <v>7.5</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
       </c>
       <c r="K15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" s="2">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <f>AVERAGE(J15,L15)</f>
         <v>3.5</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" si="4"/>
+      <c r="O15">
+        <f>AVERAGE(K15,M15)</f>
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <f>SUM(N15:O15)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q15">
+        <f>N15-G15</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R15">
+        <f>O15-H15</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S15" s="3">
+        <f>SUM(G15,N15)</f>
         <v>7.5</v>
       </c>
-      <c r="P15" s="3">
-        <f t="shared" si="5"/>
+      <c r="T15" s="3">
+        <f>SUM(H15,O15)</f>
         <v>6.5</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="6"/>
+      <c r="U15">
+        <f>AVERAGE(C15,E15,J15,L15)</f>
         <v>3.75</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="7"/>
+      <c r="V15">
+        <f>AVERAGE(H15,O15)</f>
         <v>3.25</v>
       </c>
+      <c r="W15">
+        <f>SUM(I15,P15)</f>
+        <v>14</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>21</v>
       </c>
@@ -4512,51 +5189,71 @@
         <v>3</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C16,E16)</f>
         <v>3</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D16,F16)</f>
         <v>3</v>
       </c>
       <c r="I16" s="2">
-        <v>3</v>
+        <f>SUM(G16:H16)</f>
+        <v>6</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
       </c>
       <c r="K16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <f>AVERAGE(J16,L16)</f>
         <v>3.5</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="4"/>
+      <c r="O16">
+        <f>AVERAGE(K16,M16)</f>
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <f>SUM(N16:O16)</f>
         <v>6.5</v>
       </c>
-      <c r="P16" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q16">
+        <f>N16-G16</f>
+        <v>0.5</v>
+      </c>
+      <c r="R16">
+        <f>O16-H16</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <f>SUM(G16,N16)</f>
+        <v>6.5</v>
+      </c>
+      <c r="T16" s="3">
+        <f>SUM(H16,O16)</f>
         <v>6</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="6"/>
+      <c r="U16">
+        <f>AVERAGE(C16,E16,J16,L16)</f>
         <v>3.25</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="V16">
+        <f>AVERAGE(H16,O16)</f>
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <f>SUM(I16,P16)</f>
+        <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -4576,51 +5273,71 @@
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C17,E17)</f>
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D17,F17)</f>
         <v>1.5</v>
       </c>
       <c r="I17" s="2">
-        <v>3</v>
+        <f>SUM(G17:H17)</f>
+        <v>3.5</v>
       </c>
       <c r="J17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="2">
         <v>2</v>
       </c>
       <c r="L17" s="2">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f>AVERAGE(J17,L17)</f>
         <v>2.5</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
+      <c r="O17">
+        <f>AVERAGE(K17,M17)</f>
         <v>2.5</v>
       </c>
-      <c r="O17" s="3">
-        <f t="shared" si="4"/>
+      <c r="P17">
+        <f>SUM(N17:O17)</f>
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <f>N17-G17</f>
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <f>O17-H17</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <f>SUM(G17,N17)</f>
         <v>4.5</v>
       </c>
-      <c r="P17" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="6"/>
+      <c r="T17" s="3">
+        <f>SUM(H17,O17)</f>
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <f>AVERAGE(C17,E17,J17,L17)</f>
         <v>2.25</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="7"/>
-        <v>2</v>
+      <c r="V17">
+        <f>AVERAGE(H17,O17)</f>
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <f>SUM(I17,P17)</f>
+        <v>8.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -4640,51 +5357,71 @@
         <v>4</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C18,E18)</f>
         <v>4</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D18,F18)</f>
         <v>4</v>
       </c>
       <c r="I18" s="2">
-        <v>3</v>
+        <f>SUM(G18:H18)</f>
+        <v>8</v>
       </c>
       <c r="J18" s="2">
         <v>3</v>
       </c>
       <c r="K18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" s="2">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <f>AVERAGE(J18,L18)</f>
         <v>3.5</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="4"/>
+      <c r="O18">
+        <f>AVERAGE(K18,M18)</f>
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f>SUM(N18:O18)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q18">
+        <f>N18-G18</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R18">
+        <f>O18-H18</f>
+        <v>-1</v>
+      </c>
+      <c r="S18" s="3">
+        <f>SUM(G18,N18)</f>
         <v>7.5</v>
       </c>
-      <c r="P18" s="3">
-        <f t="shared" si="5"/>
+      <c r="T18" s="3">
+        <f>SUM(H18,O18)</f>
         <v>7</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="6"/>
+      <c r="U18">
+        <f>AVERAGE(C18,E18,J18,L18)</f>
         <v>3.75</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="7"/>
+      <c r="V18">
+        <f>AVERAGE(H18,O18)</f>
         <v>3.5</v>
       </c>
+      <c r="W18">
+        <f>SUM(I18,P18)</f>
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -4704,51 +5441,71 @@
         <v>2</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C19,E19)</f>
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D19,F19)</f>
         <v>2</v>
       </c>
       <c r="I19" s="2">
+        <f>SUM(G19:H19)</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="2">
         <v>1</v>
       </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
       <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
         <v>1</v>
       </c>
-      <c r="L19" s="2">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
+      <c r="M19" s="2">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <f>AVERAGE(J19,L19)</f>
         <v>1</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="3"/>
+      <c r="O19">
+        <f>AVERAGE(K19,M19)</f>
         <v>2.5</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="5"/>
+      <c r="P19">
+        <f>SUM(N19:O19)</f>
+        <v>3.5</v>
+      </c>
+      <c r="Q19">
+        <f>N19-G19</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>O19-H19</f>
+        <v>0.5</v>
+      </c>
+      <c r="S19" s="3">
+        <f>SUM(G19,N19)</f>
+        <v>2</v>
+      </c>
+      <c r="T19" s="3">
+        <f>SUM(H19,O19)</f>
         <v>4.5</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="6"/>
+      <c r="U19">
+        <f>AVERAGE(C19,E19,J19,L19)</f>
         <v>1</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="7"/>
+      <c r="V19">
+        <f>AVERAGE(H19,O19)</f>
         <v>2.25</v>
       </c>
+      <c r="W19">
+        <f>SUM(I19,P19)</f>
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -4768,15 +5525,16 @@
         <v>4</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C20,E20)</f>
         <v>3</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D20,F20)</f>
         <v>3.5</v>
       </c>
       <c r="I20" s="2">
-        <v>3</v>
+        <f>SUM(G20:H20)</f>
+        <v>6.5</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
@@ -4787,32 +5545,51 @@
       <c r="L20" s="2">
         <v>3</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
+      <c r="M20" s="2">
         <v>3</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J20,L20)</f>
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(K20,M20)</f>
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <f>SUM(N20:O20)</f>
         <v>6</v>
       </c>
-      <c r="P20" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q20">
+        <f>N20-G20</f>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f>O20-H20</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S20" s="3">
+        <f>SUM(G20,N20)</f>
+        <v>6</v>
+      </c>
+      <c r="T20" s="3">
+        <f>SUM(H20,O20)</f>
         <v>6.5</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="7"/>
+      <c r="U20">
+        <f>AVERAGE(C20,E20,J20,L20)</f>
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <f>AVERAGE(H20,O20)</f>
         <v>3.25</v>
       </c>
+      <c r="W20">
+        <f>SUM(I20,P20)</f>
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -4832,51 +5609,71 @@
         <v>2</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C21,E21)</f>
         <v>2.5</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D21,F21)</f>
         <v>1.5</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <f>SUM(G21:H21)</f>
+        <v>4</v>
       </c>
       <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="2">
-        <v>3</v>
-      </c>
       <c r="L21" s="2">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <f>AVERAGE(J21,L21)</f>
         <v>2.5</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="3"/>
+      <c r="O21">
+        <f>AVERAGE(K21,M21)</f>
         <v>1.5</v>
       </c>
-      <c r="O21" s="3">
-        <f t="shared" si="4"/>
+      <c r="P21">
+        <f>SUM(N21:O21)</f>
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <f>N21-G21</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f>O21-H21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <f>SUM(G21,N21)</f>
         <v>5</v>
       </c>
-      <c r="P21" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="6"/>
+      <c r="T21" s="3">
+        <f>SUM(H21,O21)</f>
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <f>AVERAGE(C21,E21,J21,L21)</f>
         <v>2.5</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="7"/>
+      <c r="V21">
+        <f>AVERAGE(H21,O21)</f>
         <v>1.5</v>
       </c>
+      <c r="W21">
+        <f>SUM(I21,P21)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>28</v>
       </c>
@@ -4896,51 +5693,71 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C22,E22)</f>
         <v>3</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D22,F22)</f>
         <v>3</v>
       </c>
       <c r="I22" s="2">
-        <v>3</v>
+        <f>SUM(G22:H22)</f>
+        <v>6</v>
       </c>
       <c r="J22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" s="2">
-        <v>4</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="M22" s="2">
+        <v>4</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J22,L22)</f>
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE(K22,M22)</f>
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <f>SUM(N22:O22)</f>
+        <v>7</v>
+      </c>
+      <c r="Q22">
+        <f>N22-G22</f>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>O22-H22</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <f>SUM(G22,N22)</f>
         <v>6</v>
       </c>
-      <c r="P22" s="3">
-        <f t="shared" si="5"/>
+      <c r="T22" s="3">
+        <f>SUM(H22,O22)</f>
         <v>7</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="7"/>
+      <c r="U22">
+        <f>AVERAGE(C22,E22,J22,L22)</f>
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <f>AVERAGE(H22,O22)</f>
         <v>3.5</v>
       </c>
+      <c r="W22">
+        <f>SUM(I22,P22)</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>30</v>
       </c>
@@ -4960,51 +5777,71 @@
         <v>4</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C23,E23)</f>
         <v>3</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D23,F23)</f>
         <v>3.5</v>
       </c>
       <c r="I23" s="2">
-        <v>2</v>
+        <f>SUM(G23:H23)</f>
+        <v>6.5</v>
       </c>
       <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="2">
         <v>1</v>
       </c>
-      <c r="K23" s="2">
-        <v>3</v>
-      </c>
       <c r="L23" s="2">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <f>AVERAGE(J23,L23)</f>
         <v>2.5</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="3"/>
+      <c r="O23">
+        <f>AVERAGE(K23,M23)</f>
         <v>1.5</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" si="4"/>
+      <c r="P23">
+        <f>SUM(N23:O23)</f>
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <f>N23-G23</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <f>O23-H23</f>
+        <v>-2</v>
+      </c>
+      <c r="S23" s="3">
+        <f>SUM(G23,N23)</f>
         <v>5.5</v>
       </c>
-      <c r="P23" s="3">
-        <f t="shared" si="5"/>
+      <c r="T23" s="3">
+        <f>SUM(H23,O23)</f>
         <v>5</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="6"/>
+      <c r="U23">
+        <f>AVERAGE(C23,E23,J23,L23)</f>
         <v>2.75</v>
       </c>
-      <c r="R23">
-        <f t="shared" si="7"/>
+      <c r="V23">
+        <f>AVERAGE(H23,O23)</f>
         <v>2.5</v>
       </c>
+      <c r="W23">
+        <f>SUM(I23,P23)</f>
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>31</v>
       </c>
@@ -5024,51 +5861,71 @@
         <v>3</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C24,E24)</f>
         <v>3</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D24,F24)</f>
         <v>2.5</v>
       </c>
       <c r="I24" s="2">
-        <v>4</v>
+        <f>SUM(G24:H24)</f>
+        <v>5.5</v>
       </c>
       <c r="J24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" s="2">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <f>AVERAGE(J24,L24)</f>
         <v>3.5</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" si="4"/>
+      <c r="O24">
+        <f>AVERAGE(K24,M24)</f>
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <f>SUM(N24:O24)</f>
+        <v>5.5</v>
+      </c>
+      <c r="Q24">
+        <f>N24-G24</f>
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <f>O24-H24</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S24" s="3">
+        <f>SUM(G24,N24)</f>
         <v>6.5</v>
       </c>
-      <c r="P24" s="3">
-        <f t="shared" si="5"/>
+      <c r="T24" s="3">
+        <f>SUM(H24,O24)</f>
         <v>4.5</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="6"/>
+      <c r="U24">
+        <f>AVERAGE(C24,E24,J24,L24)</f>
         <v>3.25</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="7"/>
+      <c r="V24">
+        <f>AVERAGE(H24,O24)</f>
         <v>2.25</v>
       </c>
+      <c r="W24">
+        <f>SUM(I24,P24)</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>32</v>
       </c>
@@ -5088,51 +5945,71 @@
         <v>3</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C25,E25)</f>
         <v>4</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D25,F25)</f>
         <v>2.5</v>
       </c>
       <c r="I25" s="2">
-        <v>4</v>
+        <f>SUM(G25:H25)</f>
+        <v>6.5</v>
       </c>
       <c r="J25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25" s="2">
         <v>4</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
+      <c r="M25" s="2">
         <v>4</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J25,L25)</f>
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <f>AVERAGE(K25,M25)</f>
         <v>3.5</v>
       </c>
-      <c r="O25" s="3">
-        <f t="shared" si="4"/>
+      <c r="P25">
+        <f>SUM(N25:O25)</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q25">
+        <f>N25-G25</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>O25-H25</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <f>SUM(G25,N25)</f>
         <v>8</v>
       </c>
-      <c r="P25" s="3">
-        <f t="shared" si="5"/>
+      <c r="T25" s="3">
+        <f>SUM(H25,O25)</f>
         <v>6</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="U25">
+        <f>AVERAGE(C25,E25,J25,L25)</f>
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <f>AVERAGE(H25,O25)</f>
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <f>SUM(I25,P25)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <v>33</v>
       </c>
@@ -5152,51 +6029,71 @@
         <v>2</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C26,E26)</f>
         <v>3</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D26,F26)</f>
         <v>1.5</v>
       </c>
       <c r="I26" s="2">
-        <v>3</v>
+        <f>SUM(G26:H26)</f>
+        <v>4.5</v>
       </c>
       <c r="J26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L26" s="2">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f>AVERAGE(J26,L26)</f>
         <v>3.5</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O26" s="3">
-        <f t="shared" si="4"/>
+      <c r="O26">
+        <f>AVERAGE(K26,M26)</f>
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <f>SUM(N26:O26)</f>
+        <v>5.5</v>
+      </c>
+      <c r="Q26">
+        <f>N26-G26</f>
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <f>O26-H26</f>
+        <v>0.5</v>
+      </c>
+      <c r="S26" s="3">
+        <f>SUM(G26,N26)</f>
         <v>6.5</v>
       </c>
-      <c r="P26" s="3">
-        <f t="shared" si="5"/>
+      <c r="T26" s="3">
+        <f>SUM(H26,O26)</f>
         <v>3.5</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="6"/>
+      <c r="U26">
+        <f>AVERAGE(C26,E26,J26,L26)</f>
         <v>3.25</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="7"/>
+      <c r="V26">
+        <f>AVERAGE(H26,O26)</f>
         <v>1.75</v>
       </c>
+      <c r="W26">
+        <f>SUM(I26,P26)</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>34</v>
       </c>
@@ -5216,51 +6113,71 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C27,E27)</f>
         <v>2.5</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D27,F27)</f>
         <v>1</v>
       </c>
       <c r="I27" s="2">
-        <v>2</v>
+        <f>SUM(G27:H27)</f>
+        <v>3.5</v>
       </c>
       <c r="J27" s="2">
         <v>2</v>
       </c>
       <c r="K27" s="2">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2">
         <v>1</v>
       </c>
-      <c r="L27" s="2">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <f>AVERAGE(J27,L27)</f>
         <v>1.5</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O27" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
-        <f t="shared" si="5"/>
-        <v>3</v>
+      <c r="O27">
+        <f>AVERAGE(K27,M27)</f>
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <f>SUM(N27:O27)</f>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>N27-G27</f>
+        <v>-1</v>
       </c>
       <c r="R27">
-        <f t="shared" si="7"/>
+        <f>O27-H27</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
+        <f>SUM(G27,N27)</f>
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
+        <f>SUM(H27,O27)</f>
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <f>AVERAGE(C27,E27,J27,L27)</f>
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <f>AVERAGE(H27,O27)</f>
         <v>1.5</v>
       </c>
+      <c r="W27">
+        <f>SUM(I27,P27)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>36</v>
       </c>
@@ -5280,15 +6197,16 @@
         <v>2</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C28,E28)</f>
         <v>2.5</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D28,F28)</f>
         <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>3</v>
+        <f>SUM(G28:H28)</f>
+        <v>4.5</v>
       </c>
       <c r="J28" s="2">
         <v>3</v>
@@ -5299,32 +6217,51 @@
       <c r="L28" s="2">
         <v>3</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
+      <c r="M28" s="2">
         <v>3</v>
       </c>
       <c r="N28">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J28,L28)</f>
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <f>AVERAGE(K28,M28)</f>
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <f>SUM(N28:O28)</f>
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <f>N28-G28</f>
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <f>O28-H28</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="3">
+        <f>SUM(G28,N28)</f>
         <v>5.5</v>
       </c>
-      <c r="P28" s="3">
-        <f t="shared" si="5"/>
+      <c r="T28" s="3">
+        <f>SUM(H28,O28)</f>
         <v>5</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="6"/>
+      <c r="U28">
+        <f>AVERAGE(C28,E28,J28,L28)</f>
         <v>2.75</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="7"/>
+      <c r="V28">
+        <f>AVERAGE(H28,O28)</f>
         <v>2.5</v>
       </c>
+      <c r="W28">
+        <f>SUM(I28,P28)</f>
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>37</v>
       </c>
@@ -5344,51 +6281,71 @@
         <v>2</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C29,E29)</f>
         <v>2.5</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D29,F29)</f>
         <v>2.5</v>
       </c>
       <c r="I29" s="2">
-        <v>3</v>
+        <f>SUM(G29:H29)</f>
+        <v>5</v>
       </c>
       <c r="J29" s="2">
+        <v>3</v>
+      </c>
+      <c r="K29" s="2">
         <v>1</v>
       </c>
-      <c r="K29" s="2">
-        <v>2</v>
-      </c>
       <c r="L29" s="2">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2">
         <v>1</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
+      <c r="N29">
+        <f>AVERAGE(J29,L29)</f>
         <v>2.5</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="3"/>
+      <c r="O29">
+        <f>AVERAGE(K29,M29)</f>
         <v>1</v>
       </c>
-      <c r="O29" s="3">
-        <f t="shared" si="4"/>
+      <c r="P29">
+        <f>SUM(N29:O29)</f>
+        <v>3.5</v>
+      </c>
+      <c r="Q29">
+        <f>N29-G29</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>O29-H29</f>
+        <v>-1.5</v>
+      </c>
+      <c r="S29" s="3">
+        <f>SUM(G29,N29)</f>
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <f t="shared" si="5"/>
+      <c r="T29" s="3">
+        <f>SUM(H29,O29)</f>
         <v>3.5</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="6"/>
+      <c r="U29">
+        <f>AVERAGE(C29,E29,J29,L29)</f>
         <v>2.5</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="7"/>
+      <c r="V29">
+        <f>AVERAGE(H29,O29)</f>
         <v>1.75</v>
       </c>
+      <c r="W29">
+        <f>SUM(I29,P29)</f>
+        <v>8.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>38</v>
       </c>
@@ -5408,15 +6365,16 @@
         <v>2</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C30,E30)</f>
         <v>3</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D30,F30)</f>
         <v>2</v>
       </c>
       <c r="I30" s="2">
-        <v>2</v>
+        <f>SUM(G30:H30)</f>
+        <v>5</v>
       </c>
       <c r="J30" s="2">
         <v>2</v>
@@ -5425,34 +6383,53 @@
         <v>2</v>
       </c>
       <c r="L30" s="2">
-        <v>3</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3</v>
       </c>
       <c r="N30">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J30,L30)</f>
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <f>AVERAGE(K30,M30)</f>
         <v>2.5</v>
       </c>
-      <c r="O30" s="3">
-        <f t="shared" si="4"/>
+      <c r="P30">
+        <f>SUM(N30:O30)</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q30">
+        <f>N30-G30</f>
+        <v>-1</v>
+      </c>
+      <c r="R30">
+        <f>O30-H30</f>
+        <v>0.5</v>
+      </c>
+      <c r="S30" s="3">
+        <f>SUM(G30,N30)</f>
         <v>5</v>
       </c>
-      <c r="P30" s="3">
-        <f t="shared" si="5"/>
+      <c r="T30" s="3">
+        <f>SUM(H30,O30)</f>
         <v>4.5</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="6"/>
+      <c r="U30">
+        <f>AVERAGE(C30,E30,J30,L30)</f>
         <v>2.5</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="7"/>
+      <c r="V30">
+        <f>AVERAGE(H30,O30)</f>
         <v>2.25</v>
       </c>
+      <c r="W30">
+        <f>SUM(I30,P30)</f>
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>39</v>
       </c>
@@ -5472,15 +6449,16 @@
         <v>3</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C31,E31)</f>
         <v>4</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D31,F31)</f>
         <v>3</v>
       </c>
       <c r="I31" s="2">
-        <v>4</v>
+        <f>SUM(G31:H31)</f>
+        <v>7</v>
       </c>
       <c r="J31" s="2">
         <v>4</v>
@@ -5491,32 +6469,51 @@
       <c r="L31" s="2">
         <v>4</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="2"/>
+      <c r="M31" s="2">
         <v>4</v>
       </c>
       <c r="N31">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O31" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J31,L31)</f>
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <f>AVERAGE(K31,M31)</f>
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <f>SUM(N31:O31)</f>
         <v>8</v>
       </c>
-      <c r="P31" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q31">
+        <f>N31-G31</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>O31-H31</f>
+        <v>1</v>
+      </c>
+      <c r="S31" s="3">
+        <f>SUM(G31,N31)</f>
+        <v>8</v>
+      </c>
+      <c r="T31" s="3">
+        <f>SUM(H31,O31)</f>
         <v>7</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="7"/>
+      <c r="U31">
+        <f>AVERAGE(C31,E31,J31,L31)</f>
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <f>AVERAGE(H31,O31)</f>
         <v>3.5</v>
       </c>
+      <c r="W31">
+        <f>SUM(I31,P31)</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>40</v>
       </c>
@@ -5536,15 +6533,16 @@
         <v>2</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C32,E32)</f>
         <v>2</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D32,F32)</f>
         <v>1.5</v>
       </c>
       <c r="I32" s="2">
-        <v>2</v>
+        <f>SUM(G32:H32)</f>
+        <v>3.5</v>
       </c>
       <c r="J32" s="2">
         <v>2</v>
@@ -5555,32 +6553,51 @@
       <c r="L32" s="2">
         <v>2</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
+      <c r="M32" s="2">
         <v>2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O32" s="3">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(J32,L32)</f>
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <f>AVERAGE(K32,M32)</f>
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <f>SUM(N32:O32)</f>
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <f>N32-G32</f>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>O32-H32</f>
+        <v>0.5</v>
+      </c>
+      <c r="S32" s="3">
+        <f>SUM(G32,N32)</f>
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
+        <f>SUM(H32,O32)</f>
         <v>3.5</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="7"/>
+      <c r="U32">
+        <f>AVERAGE(C32,E32,J32,L32)</f>
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <f>AVERAGE(H32,O32)</f>
         <v>1.75</v>
       </c>
+      <c r="W32">
+        <f>SUM(I32,P32)</f>
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" s="2">
         <v>41</v>
       </c>
@@ -5600,51 +6617,71 @@
         <v>3</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C33,E33)</f>
         <v>4</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D33,F33)</f>
         <v>3.5</v>
       </c>
       <c r="I33" s="2">
-        <v>3</v>
+        <f>SUM(G33:H33)</f>
+        <v>7.5</v>
       </c>
       <c r="J33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33" s="2">
         <v>3</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="2"/>
+      <c r="M33" s="2">
         <v>3</v>
       </c>
       <c r="N33">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J33,L33)</f>
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <f>AVERAGE(K33,M33)</f>
         <v>3.5</v>
       </c>
-      <c r="O33" s="3">
-        <f t="shared" si="4"/>
+      <c r="P33">
+        <f>SUM(N33:O33)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q33">
+        <f>N33-G33</f>
+        <v>-1</v>
+      </c>
+      <c r="R33">
+        <f>O33-H33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <f>SUM(G33,N33)</f>
         <v>7</v>
       </c>
-      <c r="P33" s="3">
-        <f t="shared" si="5"/>
+      <c r="T33" s="3">
+        <f>SUM(H33,O33)</f>
         <v>7</v>
       </c>
-      <c r="Q33">
-        <f t="shared" si="6"/>
+      <c r="U33">
+        <f>AVERAGE(C33,E33,J33,L33)</f>
         <v>3.5</v>
       </c>
-      <c r="R33">
-        <f t="shared" si="7"/>
+      <c r="V33">
+        <f>AVERAGE(H33,O33)</f>
         <v>3.5</v>
       </c>
+      <c r="W33">
+        <f>SUM(I33,P33)</f>
+        <v>14</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" s="2">
         <v>42</v>
       </c>
@@ -5664,15 +6701,16 @@
         <v>3</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C34,E34)</f>
         <v>3</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D34,F34)</f>
         <v>3</v>
       </c>
       <c r="I34" s="2">
-        <v>3</v>
+        <f>SUM(G34:H34)</f>
+        <v>6</v>
       </c>
       <c r="J34" s="2">
         <v>3</v>
@@ -5683,32 +6721,51 @@
       <c r="L34" s="2">
         <v>3</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
+      <c r="M34" s="2">
         <v>3</v>
       </c>
       <c r="N34">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O34" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J34,L34)</f>
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <f>AVERAGE(K34,M34)</f>
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <f>SUM(N34:O34)</f>
         <v>6</v>
       </c>
-      <c r="P34" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q34">
+        <f>N34-G34</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f>O34-H34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <f>SUM(G34,N34)</f>
         <v>6</v>
       </c>
-      <c r="Q34">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="T34" s="3">
+        <f>SUM(H34,O34)</f>
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <f>AVERAGE(C34,E34,J34,L34)</f>
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <f>AVERAGE(H34,O34)</f>
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <f>SUM(I34,P34)</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" s="2">
         <v>43</v>
       </c>
@@ -5728,51 +6785,71 @@
         <v>2</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C35,E35)</f>
         <v>3</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D35,F35)</f>
         <v>1.5</v>
       </c>
       <c r="I35" s="2">
-        <v>3</v>
+        <f>SUM(G35:H35)</f>
+        <v>4.5</v>
       </c>
       <c r="J35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L35" s="2">
-        <v>3</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <f>AVERAGE(J35,L35)</f>
         <v>3.5</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="3"/>
+      <c r="O35">
+        <f>AVERAGE(K35,M35)</f>
         <v>2.5</v>
       </c>
-      <c r="O35" s="3">
-        <f t="shared" si="4"/>
+      <c r="P35">
+        <f>SUM(N35:O35)</f>
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <f>N35-G35</f>
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <f>O35-H35</f>
+        <v>1</v>
+      </c>
+      <c r="S35" s="3">
+        <f>SUM(G35,N35)</f>
         <v>6.5</v>
       </c>
-      <c r="P35" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="6"/>
+      <c r="T35" s="3">
+        <f>SUM(H35,O35)</f>
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <f>AVERAGE(C35,E35,J35,L35)</f>
         <v>3.25</v>
       </c>
-      <c r="R35">
-        <f t="shared" si="7"/>
-        <v>2</v>
+      <c r="V35">
+        <f>AVERAGE(H35,O35)</f>
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <f>SUM(I35,P35)</f>
+        <v>10.5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" s="2">
         <v>44</v>
       </c>
@@ -5792,51 +6869,71 @@
         <v>3</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C36,E36)</f>
         <v>3</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D36,F36)</f>
         <v>3</v>
       </c>
       <c r="I36" s="2">
-        <v>3</v>
+        <f>SUM(G36:H36)</f>
+        <v>6</v>
       </c>
       <c r="J36" s="2">
         <v>3</v>
       </c>
       <c r="K36" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" s="2">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <f>AVERAGE(J36,L36)</f>
         <v>3.5</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O36" s="3">
-        <f t="shared" si="4"/>
+      <c r="O36">
+        <f>AVERAGE(K36,M36)</f>
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <f>SUM(N36:O36)</f>
         <v>6.5</v>
       </c>
-      <c r="P36" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q36">
+        <f>N36-G36</f>
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <f>O36-H36</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <f>SUM(G36,N36)</f>
+        <v>6.5</v>
+      </c>
+      <c r="T36" s="3">
+        <f>SUM(H36,O36)</f>
         <v>6</v>
       </c>
-      <c r="Q36">
-        <f t="shared" si="6"/>
+      <c r="U36">
+        <f>AVERAGE(C36,E36,J36,L36)</f>
         <v>3.25</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="V36">
+        <f>AVERAGE(H36,O36)</f>
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <f>SUM(I36,P36)</f>
+        <v>12.5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" s="2">
         <v>45</v>
       </c>
@@ -5856,51 +6953,71 @@
         <v>3</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C37,E37)</f>
         <v>4</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D37,F37)</f>
         <v>3</v>
       </c>
       <c r="I37" s="2">
-        <v>4</v>
+        <f>SUM(G37:H37)</f>
+        <v>7</v>
       </c>
       <c r="J37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" s="2">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="M37" s="2">
+        <v>3</v>
       </c>
       <c r="N37">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O37" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J37,L37)</f>
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <f>AVERAGE(K37,M37)</f>
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <f>SUM(N37:O37)</f>
+        <v>7</v>
+      </c>
+      <c r="Q37">
+        <f>N37-G37</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>O37-H37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <f>SUM(G37,N37)</f>
         <v>8</v>
       </c>
-      <c r="P37" s="3">
-        <f t="shared" si="5"/>
+      <c r="T37" s="3">
+        <f>SUM(H37,O37)</f>
         <v>6</v>
       </c>
-      <c r="Q37">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="U37">
+        <f>AVERAGE(C37,E37,J37,L37)</f>
+        <v>4</v>
+      </c>
+      <c r="V37">
+        <f>AVERAGE(H37,O37)</f>
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <f>SUM(I37,P37)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" s="2">
         <v>46</v>
       </c>
@@ -5920,51 +7037,71 @@
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C38,E38)</f>
         <v>3.5</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D38,F38)</f>
         <v>1</v>
       </c>
       <c r="I38" s="2">
-        <v>3</v>
+        <f>SUM(G38:H38)</f>
+        <v>4.5</v>
       </c>
       <c r="J38" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K38" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" s="2">
-        <v>4</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4</v>
       </c>
       <c r="N38">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O38" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J38,L38)</f>
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <f>AVERAGE(K38,M38)</f>
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <f>SUM(N38:O38)</f>
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <f>N38-G38</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R38">
+        <f>O38-H38</f>
+        <v>3</v>
+      </c>
+      <c r="S38" s="3">
+        <f>SUM(G38,N38)</f>
         <v>6.5</v>
       </c>
-      <c r="P38" s="3">
-        <f t="shared" si="5"/>
+      <c r="T38" s="3">
+        <f>SUM(H38,O38)</f>
         <v>5</v>
       </c>
-      <c r="Q38">
-        <f t="shared" si="6"/>
+      <c r="U38">
+        <f>AVERAGE(C38,E38,J38,L38)</f>
         <v>3.25</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="7"/>
+      <c r="V38">
+        <f>AVERAGE(H38,O38)</f>
         <v>2.5</v>
       </c>
+      <c r="W38">
+        <f>SUM(I38,P38)</f>
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" s="2">
         <v>47</v>
       </c>
@@ -5984,51 +7121,71 @@
         <v>4</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C39,E39)</f>
         <v>4</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D39,F39)</f>
         <v>3.5</v>
       </c>
       <c r="I39" s="2">
-        <v>4</v>
+        <f>SUM(G39:H39)</f>
+        <v>7.5</v>
       </c>
       <c r="J39" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39" s="2">
-        <v>3</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="M39" s="2">
+        <v>3</v>
       </c>
       <c r="N39">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O39" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J39,L39)</f>
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <f>AVERAGE(K39,M39)</f>
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <f>SUM(N39:O39)</f>
+        <v>7</v>
+      </c>
+      <c r="Q39">
+        <f>N39-G39</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f>O39-H39</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S39" s="3">
+        <f>SUM(G39,N39)</f>
         <v>8</v>
       </c>
-      <c r="P39" s="3">
-        <f t="shared" si="5"/>
+      <c r="T39" s="3">
+        <f>SUM(H39,O39)</f>
         <v>6.5</v>
       </c>
-      <c r="Q39">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="7"/>
+      <c r="U39">
+        <f>AVERAGE(C39,E39,J39,L39)</f>
+        <v>4</v>
+      </c>
+      <c r="V39">
+        <f>AVERAGE(H39,O39)</f>
         <v>3.25</v>
       </c>
+      <c r="W39">
+        <f>SUM(I39,P39)</f>
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" s="2">
         <v>48</v>
       </c>
@@ -6048,18 +7205,19 @@
         <v>3</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C40,E40)</f>
         <v>2</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D40,F40)</f>
         <v>3</v>
       </c>
       <c r="I40" s="2">
-        <v>4</v>
+        <f>SUM(G40:H40)</f>
+        <v>5</v>
       </c>
       <c r="J40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K40" s="2">
         <v>3</v>
@@ -6067,32 +7225,51 @@
       <c r="L40" s="2">
         <v>3</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="2"/>
+      <c r="M40" s="2">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <f>AVERAGE(J40,L40)</f>
         <v>3.5</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O40" s="3">
-        <f t="shared" si="4"/>
+      <c r="O40">
+        <f>AVERAGE(K40,M40)</f>
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <f>SUM(N40:O40)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q40">
+        <f>N40-G40</f>
+        <v>1.5</v>
+      </c>
+      <c r="R40">
+        <f>O40-H40</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
+        <f>SUM(G40,N40)</f>
         <v>5.5</v>
       </c>
-      <c r="P40" s="3">
-        <f t="shared" si="5"/>
+      <c r="T40" s="3">
+        <f>SUM(H40,O40)</f>
         <v>6</v>
       </c>
-      <c r="Q40">
-        <f t="shared" si="6"/>
+      <c r="U40">
+        <f>AVERAGE(C40,E40,J40,L40)</f>
         <v>2.75</v>
       </c>
-      <c r="R40">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="V40">
+        <f>AVERAGE(H40,O40)</f>
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <f>SUM(I40,P40)</f>
+        <v>11.5</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" s="2">
         <v>49</v>
       </c>
@@ -6112,51 +7289,71 @@
         <v>4</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C41,E41)</f>
         <v>3.5</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D41,F41)</f>
         <v>4</v>
       </c>
       <c r="I41" s="2">
-        <v>4</v>
+        <f>SUM(G41:H41)</f>
+        <v>7.5</v>
       </c>
       <c r="J41" s="2">
         <v>4</v>
       </c>
       <c r="K41" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L41" s="2">
-        <v>4</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="M41" s="2">
+        <v>4</v>
       </c>
       <c r="N41">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J41,L41)</f>
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <f>AVERAGE(K41,M41)</f>
+        <v>4</v>
+      </c>
+      <c r="P41">
+        <f>SUM(N41:O41)</f>
+        <v>7</v>
+      </c>
+      <c r="Q41">
+        <f>N41-G41</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R41">
+        <f>O41-H41</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <f>SUM(G41,N41)</f>
         <v>6.5</v>
       </c>
-      <c r="P41" s="3">
-        <f t="shared" si="5"/>
+      <c r="T41" s="3">
+        <f>SUM(H41,O41)</f>
         <v>8</v>
       </c>
-      <c r="Q41">
-        <f t="shared" si="6"/>
+      <c r="U41">
+        <f>AVERAGE(C41,E41,J41,L41)</f>
         <v>3.25</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="V41">
+        <f>AVERAGE(H41,O41)</f>
+        <v>4</v>
+      </c>
+      <c r="W41">
+        <f>SUM(I41,P41)</f>
+        <v>14.5</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" s="2">
         <v>50</v>
       </c>
@@ -6176,51 +7373,71 @@
         <v>2</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C42,E42)</f>
         <v>3</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D42,F42)</f>
         <v>1.5</v>
       </c>
       <c r="I42" s="2">
-        <v>3</v>
+        <f>SUM(G42:H42)</f>
+        <v>4.5</v>
       </c>
       <c r="J42" s="2">
+        <v>3</v>
+      </c>
+      <c r="K42" s="2">
         <v>1</v>
       </c>
-      <c r="K42" s="2">
-        <v>3</v>
-      </c>
       <c r="L42" s="2">
+        <v>3</v>
+      </c>
+      <c r="M42" s="2">
         <v>1</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
       <c r="N42">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J42,L42)</f>
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <f>AVERAGE(K42,M42)</f>
         <v>1</v>
       </c>
-      <c r="O42" s="3">
-        <f t="shared" si="4"/>
+      <c r="P42">
+        <f>SUM(N42:O42)</f>
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <f>N42-G42</f>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f>O42-H42</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S42" s="3">
+        <f>SUM(G42,N42)</f>
         <v>6</v>
       </c>
-      <c r="P42" s="3">
-        <f t="shared" si="5"/>
+      <c r="T42" s="3">
+        <f>SUM(H42,O42)</f>
         <v>2.5</v>
       </c>
-      <c r="Q42">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="7"/>
+      <c r="U42">
+        <f>AVERAGE(C42,E42,J42,L42)</f>
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <f>AVERAGE(H42,O42)</f>
         <v>1.25</v>
       </c>
+      <c r="W42">
+        <f>SUM(I42,P42)</f>
+        <v>8.5</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" s="2">
         <v>51</v>
       </c>
@@ -6240,51 +7457,71 @@
         <v>4</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C43,E43)</f>
         <v>3.5</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D43,F43)</f>
         <v>4</v>
       </c>
       <c r="I43" s="2">
-        <v>3</v>
+        <f>SUM(G43:H43)</f>
+        <v>7.5</v>
       </c>
       <c r="J43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43" s="2">
-        <v>4</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="M43" s="2">
+        <v>4</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J43,L43)</f>
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <f>AVERAGE(K43,M43)</f>
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <f>SUM(N43:O43)</f>
+        <v>7</v>
+      </c>
+      <c r="Q43">
+        <f>N43-G43</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R43">
+        <f>O43-H43</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <f>SUM(G43,N43)</f>
         <v>6.5</v>
       </c>
-      <c r="P43" s="3">
-        <f t="shared" si="5"/>
+      <c r="T43" s="3">
+        <f>SUM(H43,O43)</f>
         <v>8</v>
       </c>
-      <c r="Q43">
-        <f t="shared" si="6"/>
+      <c r="U43">
+        <f>AVERAGE(C43,E43,J43,L43)</f>
         <v>3.25</v>
       </c>
-      <c r="R43">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="V43">
+        <f>AVERAGE(H43,O43)</f>
+        <v>4</v>
+      </c>
+      <c r="W43">
+        <f>SUM(I43,P43)</f>
+        <v>14.5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" s="2">
         <v>52</v>
       </c>
@@ -6304,51 +7541,71 @@
         <v>3</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C44,E44)</f>
         <v>2.5</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D44,F44)</f>
         <v>3</v>
       </c>
       <c r="I44" s="2">
-        <v>4</v>
+        <f>SUM(G44:H44)</f>
+        <v>5.5</v>
       </c>
       <c r="J44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L44" s="2">
-        <v>3</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="M44" s="2">
+        <v>3</v>
       </c>
       <c r="N44">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O44" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J44,L44)</f>
+        <v>4</v>
+      </c>
+      <c r="O44">
+        <f>AVERAGE(K44,M44)</f>
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <f>SUM(N44:O44)</f>
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <f>N44-G44</f>
+        <v>1.5</v>
+      </c>
+      <c r="R44">
+        <f>O44-H44</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <f>SUM(G44,N44)</f>
         <v>6.5</v>
       </c>
-      <c r="P44" s="3">
-        <f t="shared" si="5"/>
+      <c r="T44" s="3">
+        <f>SUM(H44,O44)</f>
         <v>6</v>
       </c>
-      <c r="Q44">
-        <f t="shared" si="6"/>
+      <c r="U44">
+        <f>AVERAGE(C44,E44,J44,L44)</f>
         <v>3.25</v>
       </c>
-      <c r="R44">
-        <f t="shared" si="7"/>
-        <v>3</v>
+      <c r="V44">
+        <f>AVERAGE(H44,O44)</f>
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <f>SUM(I44,P44)</f>
+        <v>12.5</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" s="2">
         <v>53</v>
       </c>
@@ -6368,15 +7625,16 @@
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C45,E45)</f>
         <v>2.5</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D45,F45)</f>
         <v>1</v>
       </c>
       <c r="I45" s="2">
-        <v>3</v>
+        <f>SUM(G45:H45)</f>
+        <v>3.5</v>
       </c>
       <c r="J45" s="2">
         <v>3</v>
@@ -6387,32 +7645,51 @@
       <c r="L45" s="2">
         <v>3</v>
       </c>
-      <c r="M45">
-        <f t="shared" si="2"/>
+      <c r="M45" s="2">
         <v>3</v>
       </c>
       <c r="N45">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O45" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J45,L45)</f>
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <f>AVERAGE(K45,M45)</f>
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <f>SUM(N45:O45)</f>
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <f>N45-G45</f>
+        <v>0.5</v>
+      </c>
+      <c r="R45">
+        <f>O45-H45</f>
+        <v>2</v>
+      </c>
+      <c r="S45" s="3">
+        <f>SUM(G45,N45)</f>
         <v>5.5</v>
       </c>
-      <c r="P45" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="6"/>
+      <c r="T45" s="3">
+        <f>SUM(H45,O45)</f>
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <f>AVERAGE(C45,E45,J45,L45)</f>
         <v>2.75</v>
       </c>
-      <c r="R45">
-        <f t="shared" si="7"/>
-        <v>2</v>
+      <c r="V45">
+        <f>AVERAGE(H45,O45)</f>
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <f>SUM(I45,P45)</f>
+        <v>9.5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" s="2">
         <v>55</v>
       </c>
@@ -6432,51 +7709,71 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C46,E46)</f>
         <v>3</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D46,F46)</f>
         <v>3.5</v>
       </c>
       <c r="I46" s="2">
-        <v>3</v>
+        <f>SUM(G46:H46)</f>
+        <v>6.5</v>
       </c>
       <c r="J46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K46" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L46" s="2">
-        <v>4</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M46" s="2">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <f>AVERAGE(J46,L46)</f>
         <v>2.5</v>
       </c>
-      <c r="N46">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
-        <f t="shared" si="4"/>
+      <c r="O46">
+        <f>AVERAGE(K46,M46)</f>
+        <v>4</v>
+      </c>
+      <c r="P46">
+        <f>SUM(N46:O46)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q46">
+        <f>N46-G46</f>
+        <v>-0.5</v>
+      </c>
+      <c r="R46">
+        <f>O46-H46</f>
+        <v>0.5</v>
+      </c>
+      <c r="S46" s="3">
+        <f>SUM(G46,N46)</f>
         <v>5.5</v>
       </c>
-      <c r="P46" s="3">
-        <f t="shared" si="5"/>
+      <c r="T46" s="3">
+        <f>SUM(H46,O46)</f>
         <v>7.5</v>
       </c>
-      <c r="Q46">
-        <f t="shared" si="6"/>
+      <c r="U46">
+        <f>AVERAGE(C46,E46,J46,L46)</f>
         <v>2.75</v>
       </c>
-      <c r="R46">
-        <f t="shared" si="7"/>
+      <c r="V46">
+        <f>AVERAGE(H46,O46)</f>
         <v>3.75</v>
       </c>
+      <c r="W46">
+        <f>SUM(I46,P46)</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -6496,51 +7793,71 @@
         <v>2</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C47,E47)</f>
         <v>3</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D47,F47)</f>
         <v>2</v>
       </c>
       <c r="I47" s="2">
-        <v>2</v>
+        <f>SUM(G47:H47)</f>
+        <v>5</v>
       </c>
       <c r="J47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L47" s="2">
         <v>2</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="2"/>
+      <c r="M47" s="2">
         <v>2</v>
       </c>
       <c r="N47">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J47,L47)</f>
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <f>AVERAGE(K47,M47)</f>
         <v>2.5</v>
       </c>
-      <c r="O47" s="3">
-        <f t="shared" si="4"/>
+      <c r="P47">
+        <f>SUM(N47:O47)</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q47">
+        <f>N47-G47</f>
+        <v>-1</v>
+      </c>
+      <c r="R47">
+        <f>O47-H47</f>
+        <v>0.5</v>
+      </c>
+      <c r="S47" s="3">
+        <f>SUM(G47,N47)</f>
         <v>5</v>
       </c>
-      <c r="P47" s="3">
-        <f t="shared" si="5"/>
+      <c r="T47" s="3">
+        <f>SUM(H47,O47)</f>
         <v>4.5</v>
       </c>
-      <c r="Q47">
-        <f t="shared" si="6"/>
+      <c r="U47">
+        <f>AVERAGE(C47,E47,J47,L47)</f>
         <v>2.5</v>
       </c>
-      <c r="R47">
-        <f t="shared" si="7"/>
+      <c r="V47">
+        <f>AVERAGE(H47,O47)</f>
         <v>2.25</v>
       </c>
+      <c r="W47">
+        <f>SUM(I47,P47)</f>
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -6560,18 +7877,19 @@
         <v>2</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C48,E48)</f>
         <v>4</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D48,F48)</f>
         <v>2</v>
       </c>
       <c r="I48" s="2">
-        <v>2</v>
+        <f>SUM(G48:H48)</f>
+        <v>6</v>
       </c>
       <c r="J48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" s="2">
         <v>3</v>
@@ -6579,32 +7897,51 @@
       <c r="L48" s="2">
         <v>3</v>
       </c>
-      <c r="M48">
-        <f t="shared" si="2"/>
+      <c r="M48" s="2">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <f>AVERAGE(J48,L48)</f>
         <v>2.5</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O48" s="3">
-        <f t="shared" si="4"/>
+      <c r="O48">
+        <f>AVERAGE(K48,M48)</f>
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <f>SUM(N48:O48)</f>
+        <v>5.5</v>
+      </c>
+      <c r="Q48">
+        <f>N48-G48</f>
+        <v>-1.5</v>
+      </c>
+      <c r="R48">
+        <f>O48-H48</f>
+        <v>1</v>
+      </c>
+      <c r="S48" s="3">
+        <f>SUM(G48,N48)</f>
         <v>6.5</v>
       </c>
-      <c r="P48" s="3">
-        <f t="shared" si="5"/>
+      <c r="T48" s="3">
+        <f>SUM(H48,O48)</f>
         <v>5</v>
       </c>
-      <c r="Q48">
-        <f t="shared" si="6"/>
+      <c r="U48">
+        <f>AVERAGE(C48,E48,J48,L48)</f>
         <v>3.25</v>
       </c>
-      <c r="R48">
-        <f t="shared" si="7"/>
+      <c r="V48">
+        <f>AVERAGE(H48,O48)</f>
         <v>2.5</v>
       </c>
+      <c r="W48">
+        <f>SUM(I48,P48)</f>
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49" s="2">
         <v>58</v>
       </c>
@@ -6624,15 +7961,16 @@
         <v>4</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C49,E49)</f>
         <v>4</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D49,F49)</f>
         <v>4</v>
       </c>
       <c r="I49" s="2">
-        <v>4</v>
+        <f>SUM(G49:H49)</f>
+        <v>8</v>
       </c>
       <c r="J49" s="2">
         <v>4</v>
@@ -6643,193 +7981,226 @@
       <c r="L49" s="2">
         <v>4</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="2"/>
+      <c r="M49" s="2">
         <v>4</v>
       </c>
       <c r="N49">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J49,L49)</f>
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <f>AVERAGE(K49,M49)</f>
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <f>SUM(N49:O49)</f>
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <f t="shared" si="5"/>
+      <c r="Q49">
+        <f>N49-G49</f>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f>O49-H49</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <f>SUM(G49,N49)</f>
         <v>8</v>
       </c>
-      <c r="Q49">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="7"/>
-        <v>4</v>
+      <c r="T49" s="3">
+        <f>SUM(H49,O49)</f>
+        <v>8</v>
+      </c>
+      <c r="U49">
+        <f>AVERAGE(C49,E49,J49,L49)</f>
+        <v>4</v>
+      </c>
+      <c r="V49">
+        <f>AVERAGE(H49,O49)</f>
+        <v>4</v>
+      </c>
+      <c r="W49">
+        <f>SUM(I49,P49)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W49" xr:uid="{33E338C6-0740-9341-9771-CCF93915B3C8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A6340A-02C4-0F44-AFDE-676687A30617}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A4" zoomScale="83" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
         <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!G:G)</f>
         <v>2.52</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!G:G)</f>
+        <v>3.2391304347826089</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>0.18</v>
+      </c>
+      <c r="H2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!N:N)</f>
+        <v>2.82</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!N:N)</f>
+        <v>3.0652173913043477</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0.15</v>
+      </c>
+      <c r="H3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!H:H)</f>
         <v>2.5</v>
       </c>
-      <c r="D2">
-        <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!M:M)</f>
-        <v>2.82</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!N:N)</f>
-        <v>2.64</v>
-      </c>
-      <c r="G2">
-        <v>0.18</v>
-      </c>
-      <c r="H2">
-        <v>0.18</v>
-      </c>
-      <c r="I2">
-        <v>0.15</v>
-      </c>
-      <c r="J2">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!G:G)</f>
-        <v>3.2391304347826089</v>
-      </c>
-      <c r="C3">
+      <c r="D4">
         <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!H:H)</f>
         <v>2.652173913043478</v>
       </c>
-      <c r="D3">
-        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!M:M)</f>
-        <v>3.0652173913043477</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!N:N)</f>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>0.18</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!O:O)</f>
+        <v>2.64</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!O:O)</f>
         <v>2.7391304347826089</v>
       </c>
-      <c r="G3">
-        <v>0.17</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>0.18</v>
+      </c>
+      <c r="H5">
         <v>0.19</v>
       </c>
-      <c r="J3">
-        <v>0.19</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!O:O)</f>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!S:S)</f>
         <v>5.34</v>
       </c>
-      <c r="C7">
-        <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!P:P)</f>
+      <c r="C12">
+        <f>AVERAGEIF(Sheet1!$B:$B,"blue",Sheet1!T:T)</f>
         <v>5.14</v>
       </c>
-      <c r="E7">
+      <c r="E12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F7">
+      <c r="F12">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!O:O)</f>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!S:S)</f>
         <v>6.3043478260869561</v>
       </c>
-      <c r="C8">
-        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!P:P)</f>
+      <c r="C13">
+        <f>AVERAGEIF(Sheet1!$B:$B,"green",Sheet1!T:T)</f>
         <v>5.3913043478260869</v>
       </c>
-      <c r="E8">
+      <c r="E13">
         <v>0.34</v>
       </c>
-      <c r="F8">
+      <c r="F13">
         <v>0.37</v>
       </c>
     </row>

--- a/study2/order_study_data.xlsx
+++ b/study2/order_study_data.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciangoon/thinkinghats/study2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01CA889-8E47-724B-9D05-1E717EFF1780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448F6128-8FDE-1E4D-B87A-4897F6573037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$49</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$L$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$L$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$M$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$M$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$M$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$L$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$L$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$M$1:$O$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$M$3:$O$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$M$4:$O$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="36">
   <si>
     <t>pid</t>
   </si>
@@ -137,12 +148,21 @@
   <si>
     <t>sum_total</t>
   </si>
+  <si>
+    <t>Exploit-first</t>
+  </si>
+  <si>
+    <t>Explore-first</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,11 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,6 +234,913 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Originality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$K$7:$L$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Exploit-first</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Explore-first</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Exploit-first</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Explore-first</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>First Design</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Second Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$M$7:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2391304347826089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0652173913043477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EC4-8B43-A53D-373CDD126853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$K$7:$L$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Exploit-first</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Explore-first</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Exploit-first</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Explore-first</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>First Design</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Second Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$N$7:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.652173913043478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7391304347826089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EC4-8B43-A53D-373CDD126853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="2171360"/>
+        <c:axId val="2348416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2171360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2348416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2348416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Sum Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2171360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exploit-first</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$M$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>First Design</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Second Design</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$M$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82D4-5B4F-BC9C-7BFFE479D204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Explore-first</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$M$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>First Design</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Second Design</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$M$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.8913043478260869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8043478260869561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.695652173913043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82D4-5B4F-BC9C-7BFFE479D204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2104974351"/>
+        <c:axId val="1875152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2104974351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1875152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1875152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104974351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -687,7 +1615,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1304,8 +2232,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1509,22 +2517,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1629,8 +2638,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1762,19 +2771,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2310,7 +3320,1230 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548217</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D60F9A-9F93-FA43-8FF1-A8951F61A50C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>694266</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>194734</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95558122-7F15-D644-86E7-AA1C14C707B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792C1535-CC4A-294C-8AC4-FC5D2D9E7FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10126134" y="6350000"/>
+          <a:ext cx="1269999" cy="474133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Originality</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12914B7-E17D-7840-9042-F2585164D425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10126134" y="4080933"/>
+          <a:ext cx="1269999" cy="474133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Utility</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2387,7 +4620,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3001,7 +5234,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3914,15 +6147,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C0338E-C052-8145-A484-36452DDC74C2}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +6226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>7</v>
       </c>
@@ -4013,15 +6246,15 @@
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>AVERAGE(C2,E2)</f>
+        <f t="shared" ref="G2:G49" si="0">AVERAGE(C2,E2)</f>
         <v>3.5</v>
       </c>
       <c r="H2" s="2">
-        <f>AVERAGE(D2,F2)</f>
+        <f t="shared" ref="H2:H49" si="1">AVERAGE(D2,F2)</f>
         <v>3</v>
       </c>
       <c r="I2" s="2">
-        <f>SUM(G2:H2)</f>
+        <f t="shared" ref="I2:I49" si="2">SUM(G2:H2)</f>
         <v>6.5</v>
       </c>
       <c r="J2" s="2">
@@ -4037,47 +6270,47 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <f>AVERAGE(J2,L2)</f>
+        <f t="shared" ref="N2:N49" si="3">AVERAGE(J2,L2)</f>
         <v>3</v>
       </c>
       <c r="O2">
-        <f>AVERAGE(K2,M2)</f>
+        <f t="shared" ref="O2:O49" si="4">AVERAGE(K2,M2)</f>
         <v>2.5</v>
       </c>
       <c r="P2">
-        <f>SUM(N2:O2)</f>
+        <f t="shared" ref="P2:P49" si="5">SUM(N2:O2)</f>
         <v>5.5</v>
       </c>
       <c r="Q2">
-        <f>N2-G2</f>
+        <f t="shared" ref="Q2:Q49" si="6">N2-G2</f>
         <v>-0.5</v>
       </c>
       <c r="R2">
-        <f>O2-H2</f>
+        <f t="shared" ref="R2:R49" si="7">O2-H2</f>
         <v>-0.5</v>
       </c>
       <c r="S2" s="3">
-        <f>SUM(G2,N2)</f>
+        <f t="shared" ref="S2:S49" si="8">SUM(G2,N2)</f>
         <v>6.5</v>
       </c>
       <c r="T2" s="3">
-        <f>SUM(H2,O2)</f>
+        <f t="shared" ref="T2:T49" si="9">SUM(H2,O2)</f>
         <v>5.5</v>
       </c>
       <c r="U2">
-        <f>AVERAGE(C2,E2,J2,L2)</f>
+        <f t="shared" ref="U2:U49" si="10">AVERAGE(C2,E2,J2,L2)</f>
         <v>3.25</v>
       </c>
       <c r="V2">
-        <f>AVERAGE(H2,O2)</f>
+        <f t="shared" ref="V2:V49" si="11">AVERAGE(H2,O2)</f>
         <v>2.75</v>
       </c>
       <c r="W2">
-        <f>SUM(I2,P2)</f>
+        <f t="shared" ref="W2:W49" si="12">SUM(I2,P2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -4097,15 +6330,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <f>AVERAGE(C3,E3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <f>AVERAGE(D3,F3)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <f>SUM(G3:H3)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J3" s="2">
@@ -4121,47 +6354,47 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <f>AVERAGE(J3,L3)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="O3">
-        <f>AVERAGE(K3,M3)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P3">
-        <f>SUM(N3:O3)</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="Q3">
-        <f>N3-G3</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="R3">
-        <f>O3-H3</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S3" s="3">
-        <f>SUM(G3,N3)</f>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="T3" s="3">
-        <f>SUM(H3,O3)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="U3">
-        <f>AVERAGE(C3,E3,J3,L3)</f>
+        <f t="shared" si="10"/>
         <v>2.25</v>
       </c>
       <c r="V3">
-        <f>AVERAGE(H3,O3)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="W3">
-        <f>SUM(I3,P3)</f>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>9</v>
       </c>
@@ -4181,15 +6414,15 @@
         <v>2</v>
       </c>
       <c r="G4" s="2">
-        <f>AVERAGE(C4,E4)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H4" s="2">
-        <f>AVERAGE(D4,F4)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I4" s="2">
-        <f>SUM(G4:H4)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J4" s="2">
@@ -4205,47 +6438,47 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <f>AVERAGE(J4,L4)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O4">
-        <f>AVERAGE(K4,M4)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P4">
-        <f>SUM(N4:O4)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q4">
-        <f>N4-G4</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R4">
-        <f>O4-H4</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S4" s="3">
-        <f>SUM(G4,N4)</f>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
       <c r="T4" s="3">
-        <f>SUM(H4,O4)</f>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="U4">
-        <f>AVERAGE(C4,E4,J4,L4)</f>
+        <f t="shared" si="10"/>
         <v>1.75</v>
       </c>
       <c r="V4">
-        <f>AVERAGE(H4,O4)</f>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="W4">
-        <f>SUM(I4,P4)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -4265,15 +6498,15 @@
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <f>AVERAGE(C5,E5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <f>AVERAGE(D5,F5)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="I5" s="2">
-        <f>SUM(G5:H5)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="J5" s="2">
@@ -4289,47 +6522,47 @@
         <v>3</v>
       </c>
       <c r="N5">
-        <f>AVERAGE(J5,L5)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O5">
-        <f>AVERAGE(K5,M5)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="P5">
-        <f>SUM(N5:O5)</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="Q5">
-        <f>N5-G5</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R5">
-        <f>O5-H5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S5" s="3">
-        <f>SUM(G5,N5)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="T5" s="3">
-        <f>SUM(H5,O5)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="U5">
-        <f>AVERAGE(C5,E5,J5,L5)</f>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="V5">
-        <f>AVERAGE(H5,O5)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="W5">
-        <f>SUM(I5,P5)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -4349,15 +6582,15 @@
         <v>2</v>
       </c>
       <c r="G6" s="2">
-        <f>AVERAGE(C6,E6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <f>AVERAGE(D6,F6)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I6" s="2">
-        <f>SUM(G6:H6)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="J6" s="2">
@@ -4373,47 +6606,47 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <f>AVERAGE(J6,L6)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="O6">
-        <f>AVERAGE(K6,M6)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P6">
-        <f>SUM(N6:O6)</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="Q6">
-        <f>N6-G6</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <f>O6-H6</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S6" s="3">
-        <f>SUM(G6,N6)</f>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="T6" s="3">
-        <f>SUM(H6,O6)</f>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="U6">
-        <f>AVERAGE(C6,E6,J6,L6)</f>
+        <f t="shared" si="10"/>
         <v>2.75</v>
       </c>
       <c r="V6">
-        <f>AVERAGE(H6,O6)</f>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="W6">
-        <f>SUM(I6,P6)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -4433,15 +6666,15 @@
         <v>3</v>
       </c>
       <c r="G7" s="2">
-        <f>AVERAGE(C7,E7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H7" s="2">
-        <f>AVERAGE(D7,F7)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <f>SUM(G7:H7)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J7" s="2">
@@ -4457,47 +6690,47 @@
         <v>3</v>
       </c>
       <c r="N7">
-        <f>AVERAGE(J7,L7)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O7">
-        <f>AVERAGE(K7,M7)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P7">
-        <f>SUM(N7:O7)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q7">
-        <f>N7-G7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>O7-H7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S7" s="3">
-        <f>SUM(G7,N7)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="T7" s="3">
-        <f>SUM(H7,O7)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="U7">
-        <f>AVERAGE(C7,E7,J7,L7)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V7">
-        <f>AVERAGE(H7,O7)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W7">
-        <f>SUM(I7,P7)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>13</v>
       </c>
@@ -4517,15 +6750,15 @@
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <f>AVERAGE(C8,E8)</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="H8" s="2">
-        <f>AVERAGE(D8,F8)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I8" s="2">
-        <f>SUM(G8:H8)</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="J8" s="2">
@@ -4541,47 +6774,47 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <f>AVERAGE(J8,L8)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O8">
-        <f>AVERAGE(K8,M8)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P8">
-        <f>SUM(N8:O8)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q8">
-        <f>N8-G8</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R8">
-        <f>O8-H8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <f>SUM(G8,N8)</f>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="T8" s="3">
-        <f>SUM(H8,O8)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="U8">
-        <f>AVERAGE(C8,E8,J8,L8)</f>
+        <f t="shared" si="10"/>
         <v>3.75</v>
       </c>
       <c r="V8">
-        <f>AVERAGE(H8,O8)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W8">
-        <f>SUM(I8,P8)</f>
+        <f t="shared" si="12"/>
         <v>13.5</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>14</v>
       </c>
@@ -4601,15 +6834,15 @@
         <v>4</v>
       </c>
       <c r="G9" s="2">
-        <f>AVERAGE(C9,E9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H9" s="2">
-        <f>AVERAGE(D9,F9)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <f>SUM(G9:H9)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J9" s="2">
@@ -4625,47 +6858,47 @@
         <v>4</v>
       </c>
       <c r="N9">
-        <f>AVERAGE(J9,L9)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O9">
-        <f>AVERAGE(K9,M9)</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="P9">
-        <f>SUM(N9:O9)</f>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="Q9">
-        <f>N9-G9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>O9-H9</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S9" s="3">
-        <f>SUM(G9,N9)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="T9" s="3">
-        <f>SUM(H9,O9)</f>
+        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
       <c r="U9">
-        <f>AVERAGE(C9,E9,J9,L9)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="V9">
-        <f>AVERAGE(H9,O9)</f>
+        <f t="shared" si="11"/>
         <v>3.75</v>
       </c>
       <c r="W9">
-        <f>SUM(I9,P9)</f>
+        <f t="shared" si="12"/>
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>15</v>
       </c>
@@ -4685,15 +6918,15 @@
         <v>2</v>
       </c>
       <c r="G10" s="2">
-        <f>AVERAGE(C10,E10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <f>AVERAGE(D10,F10)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="I10" s="2">
-        <f>SUM(G10:H10)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="J10" s="2">
@@ -4709,47 +6942,47 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <f>AVERAGE(J10,L10)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O10">
-        <f>AVERAGE(K10,M10)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="P10">
-        <f>SUM(N10:O10)</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="Q10">
-        <f>N10-G10</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R10">
-        <f>O10-H10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <f>SUM(G10,N10)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="T10" s="3">
-        <f>SUM(H10,O10)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="U10">
-        <f>AVERAGE(C10,E10,J10,L10)</f>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="V10">
-        <f>AVERAGE(H10,O10)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="W10">
-        <f>SUM(I10,P10)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -4769,15 +7002,15 @@
         <v>3</v>
       </c>
       <c r="G11" s="2">
-        <f>AVERAGE(C11,E11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <f>AVERAGE(D11,F11)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <f>SUM(G11:H11)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J11" s="2">
@@ -4793,47 +7026,47 @@
         <v>3</v>
       </c>
       <c r="N11">
-        <f>AVERAGE(J11,L11)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O11">
-        <f>AVERAGE(K11,M11)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="P11">
-        <f>SUM(N11:O11)</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="Q11">
-        <f>N11-G11</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="R11">
-        <f>O11-H11</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S11" s="3">
-        <f>SUM(G11,N11)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="T11" s="3">
-        <f>SUM(H11,O11)</f>
+        <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
       <c r="U11">
-        <f>AVERAGE(C11,E11,J11,L11)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V11">
-        <f>AVERAGE(H11,O11)</f>
+        <f t="shared" si="11"/>
         <v>2.75</v>
       </c>
       <c r="W11">
-        <f>SUM(I11,P11)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -4853,15 +7086,15 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <f>AVERAGE(C12,E12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <f>AVERAGE(D12,F12)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I12" s="2">
-        <f>SUM(G12:H12)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="J12" s="2">
@@ -4877,47 +7110,47 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <f>AVERAGE(J12,L12)</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="O12">
-        <f>AVERAGE(K12,M12)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="P12">
-        <f>SUM(N12:O12)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q12">
-        <f>N12-G12</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R12">
-        <f>O12-H12</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <f>SUM(G12,N12)</f>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
       <c r="T12" s="3">
-        <f>SUM(H12,O12)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="U12">
-        <f>AVERAGE(C12,E12,J12,L12)</f>
+        <f t="shared" si="10"/>
         <v>1.75</v>
       </c>
       <c r="V12">
-        <f>AVERAGE(H12,O12)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="W12">
-        <f>SUM(I12,P12)</f>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>18</v>
       </c>
@@ -4937,15 +7170,15 @@
         <v>2</v>
       </c>
       <c r="G13" s="2">
-        <f>AVERAGE(C13,E13)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H13" s="2">
-        <f>AVERAGE(D13,F13)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I13" s="2">
-        <f>SUM(G13:H13)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J13" s="2">
@@ -4961,47 +7194,47 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <f>AVERAGE(J13,L13)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O13">
-        <f>AVERAGE(K13,M13)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P13">
-        <f>SUM(N13:O13)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Q13">
-        <f>N13-G13</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R13">
-        <f>O13-H13</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S13" s="3">
-        <f>SUM(G13,N13)</f>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="T13" s="3">
-        <f>SUM(H13,O13)</f>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="U13">
-        <f>AVERAGE(C13,E13,J13,L13)</f>
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
       <c r="V13">
-        <f>AVERAGE(H13,O13)</f>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="W13">
-        <f>SUM(I13,P13)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>19</v>
       </c>
@@ -5021,15 +7254,15 @@
         <v>4</v>
       </c>
       <c r="G14" s="2">
-        <f>AVERAGE(C14,E14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H14" s="2">
-        <f>AVERAGE(D14,F14)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I14" s="2">
-        <f>SUM(G14:H14)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J14" s="2">
@@ -5045,47 +7278,47 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <f>AVERAGE(J14,L14)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O14">
-        <f>AVERAGE(K14,M14)</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="P14">
-        <f>SUM(N14:O14)</f>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="Q14">
-        <f>N14-G14</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>O14-H14</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S14" s="3">
-        <f>SUM(G14,N14)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="T14" s="3">
-        <f>SUM(H14,O14)</f>
+        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
       <c r="U14">
-        <f>AVERAGE(C14,E14,J14,L14)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="V14">
-        <f>AVERAGE(H14,O14)</f>
+        <f t="shared" si="11"/>
         <v>3.75</v>
       </c>
       <c r="W14">
-        <f>SUM(I14,P14)</f>
+        <f t="shared" si="12"/>
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -5105,15 +7338,15 @@
         <v>4</v>
       </c>
       <c r="G15" s="2">
-        <f>AVERAGE(C15,E15)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H15" s="2">
-        <f>AVERAGE(D15,F15)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="I15" s="2">
-        <f>SUM(G15:H15)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="J15" s="2">
@@ -5129,47 +7362,47 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <f>AVERAGE(J15,L15)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="O15">
-        <f>AVERAGE(K15,M15)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P15">
-        <f>SUM(N15:O15)</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="Q15">
-        <f>N15-G15</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R15">
-        <f>O15-H15</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S15" s="3">
-        <f>SUM(G15,N15)</f>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="T15" s="3">
-        <f>SUM(H15,O15)</f>
+        <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
       <c r="U15">
-        <f>AVERAGE(C15,E15,J15,L15)</f>
+        <f t="shared" si="10"/>
         <v>3.75</v>
       </c>
       <c r="V15">
-        <f>AVERAGE(H15,O15)</f>
+        <f t="shared" si="11"/>
         <v>3.25</v>
       </c>
       <c r="W15">
-        <f>SUM(I15,P15)</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>21</v>
       </c>
@@ -5189,15 +7422,15 @@
         <v>3</v>
       </c>
       <c r="G16" s="2">
-        <f>AVERAGE(C16,E16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H16" s="2">
-        <f>AVERAGE(D16,F16)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I16" s="2">
-        <f>SUM(G16:H16)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J16" s="2">
@@ -5213,47 +7446,47 @@
         <v>3</v>
       </c>
       <c r="N16">
-        <f>AVERAGE(J16,L16)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="O16">
-        <f>AVERAGE(K16,M16)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P16">
-        <f>SUM(N16:O16)</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="Q16">
-        <f>N16-G16</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R16">
-        <f>O16-H16</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S16" s="3">
-        <f>SUM(G16,N16)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T16" s="3">
-        <f>SUM(H16,O16)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="U16">
-        <f>AVERAGE(C16,E16,J16,L16)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V16">
-        <f>AVERAGE(H16,O16)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W16">
-        <f>SUM(I16,P16)</f>
+        <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -5273,15 +7506,15 @@
         <v>2</v>
       </c>
       <c r="G17" s="2">
-        <f>AVERAGE(C17,E17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <f>AVERAGE(D17,F17)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I17" s="2">
-        <f>SUM(G17:H17)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="J17" s="2">
@@ -5297,47 +7530,47 @@
         <v>3</v>
       </c>
       <c r="N17">
-        <f>AVERAGE(J17,L17)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="O17">
-        <f>AVERAGE(K17,M17)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="P17">
-        <f>SUM(N17:O17)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q17">
-        <f>N17-G17</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R17">
-        <f>O17-H17</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S17" s="3">
-        <f>SUM(G17,N17)</f>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="T17" s="3">
-        <f>SUM(H17,O17)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="U17">
-        <f>AVERAGE(C17,E17,J17,L17)</f>
+        <f t="shared" si="10"/>
         <v>2.25</v>
       </c>
       <c r="V17">
-        <f>AVERAGE(H17,O17)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="W17">
-        <f>SUM(I17,P17)</f>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -5357,15 +7590,15 @@
         <v>4</v>
       </c>
       <c r="G18" s="2">
-        <f>AVERAGE(C18,E18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H18" s="2">
-        <f>AVERAGE(D18,F18)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I18" s="2">
-        <f>SUM(G18:H18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J18" s="2">
@@ -5381,47 +7614,47 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <f>AVERAGE(J18,L18)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="O18">
-        <f>AVERAGE(K18,M18)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P18">
-        <f>SUM(N18:O18)</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="Q18">
-        <f>N18-G18</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R18">
-        <f>O18-H18</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="S18" s="3">
-        <f>SUM(G18,N18)</f>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="T18" s="3">
-        <f>SUM(H18,O18)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="U18">
-        <f>AVERAGE(C18,E18,J18,L18)</f>
+        <f t="shared" si="10"/>
         <v>3.75</v>
       </c>
       <c r="V18">
-        <f>AVERAGE(H18,O18)</f>
+        <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
       <c r="W18">
-        <f>SUM(I18,P18)</f>
+        <f t="shared" si="12"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -5441,15 +7674,15 @@
         <v>2</v>
       </c>
       <c r="G19" s="2">
-        <f>AVERAGE(C19,E19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <f>AVERAGE(D19,F19)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <f>SUM(G19:H19)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J19" s="2">
@@ -5465,47 +7698,47 @@
         <v>3</v>
       </c>
       <c r="N19">
-        <f>AVERAGE(J19,L19)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O19">
-        <f>AVERAGE(K19,M19)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="P19">
-        <f>SUM(N19:O19)</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="Q19">
-        <f>N19-G19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f>O19-H19</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="S19" s="3">
-        <f>SUM(G19,N19)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="T19" s="3">
-        <f>SUM(H19,O19)</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="U19">
-        <f>AVERAGE(C19,E19,J19,L19)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V19">
-        <f>AVERAGE(H19,O19)</f>
+        <f t="shared" si="11"/>
         <v>2.25</v>
       </c>
       <c r="W19">
-        <f>SUM(I19,P19)</f>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -5525,15 +7758,15 @@
         <v>4</v>
       </c>
       <c r="G20" s="2">
-        <f>AVERAGE(C20,E20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H20" s="2">
-        <f>AVERAGE(D20,F20)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="I20" s="2">
-        <f>SUM(G20:H20)</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="J20" s="2">
@@ -5549,47 +7782,47 @@
         <v>3</v>
       </c>
       <c r="N20">
-        <f>AVERAGE(J20,L20)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O20">
-        <f>AVERAGE(K20,M20)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P20">
-        <f>SUM(N20:O20)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q20">
-        <f>N20-G20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f>O20-H20</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S20" s="3">
-        <f>SUM(G20,N20)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="T20" s="3">
-        <f>SUM(H20,O20)</f>
+        <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
       <c r="U20">
-        <f>AVERAGE(C20,E20,J20,L20)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V20">
-        <f>AVERAGE(H20,O20)</f>
+        <f t="shared" si="11"/>
         <v>3.25</v>
       </c>
       <c r="W20">
-        <f>SUM(I20,P20)</f>
+        <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -5609,15 +7842,15 @@
         <v>2</v>
       </c>
       <c r="G21" s="2">
-        <f>AVERAGE(C21,E21)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H21" s="2">
-        <f>AVERAGE(D21,F21)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I21" s="2">
-        <f>SUM(G21:H21)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J21" s="2">
@@ -5633,47 +7866,47 @@
         <v>2</v>
       </c>
       <c r="N21">
-        <f>AVERAGE(J21,L21)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="O21">
-        <f>AVERAGE(K21,M21)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="P21">
-        <f>SUM(N21:O21)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q21">
-        <f>N21-G21</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R21">
-        <f>O21-H21</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <f>SUM(G21,N21)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="T21" s="3">
-        <f>SUM(H21,O21)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="U21">
-        <f>AVERAGE(C21,E21,J21,L21)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="V21">
-        <f>AVERAGE(H21,O21)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="W21">
-        <f>SUM(I21,P21)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>28</v>
       </c>
@@ -5693,15 +7926,15 @@
         <v>3</v>
       </c>
       <c r="G22" s="2">
-        <f>AVERAGE(C22,E22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H22" s="2">
-        <f>AVERAGE(D22,F22)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I22" s="2">
-        <f>SUM(G22:H22)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J22" s="2">
@@ -5717,47 +7950,47 @@
         <v>4</v>
       </c>
       <c r="N22">
-        <f>AVERAGE(J22,L22)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O22">
-        <f>AVERAGE(K22,M22)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P22">
-        <f>SUM(N22:O22)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q22">
-        <f>N22-G22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f>O22-H22</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S22" s="3">
-        <f>SUM(G22,N22)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="T22" s="3">
-        <f>SUM(H22,O22)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="U22">
-        <f>AVERAGE(C22,E22,J22,L22)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V22">
-        <f>AVERAGE(H22,O22)</f>
+        <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
       <c r="W22">
-        <f>SUM(I22,P22)</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>30</v>
       </c>
@@ -5777,15 +8010,15 @@
         <v>4</v>
       </c>
       <c r="G23" s="2">
-        <f>AVERAGE(C23,E23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H23" s="2">
-        <f>AVERAGE(D23,F23)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="I23" s="2">
-        <f>SUM(G23:H23)</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="J23" s="2">
@@ -5801,47 +8034,47 @@
         <v>2</v>
       </c>
       <c r="N23">
-        <f>AVERAGE(J23,L23)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="O23">
-        <f>AVERAGE(K23,M23)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="P23">
-        <f>SUM(N23:O23)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q23">
-        <f>N23-G23</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R23">
-        <f>O23-H23</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="S23" s="3">
-        <f>SUM(G23,N23)</f>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="T23" s="3">
-        <f>SUM(H23,O23)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="U23">
-        <f>AVERAGE(C23,E23,J23,L23)</f>
+        <f t="shared" si="10"/>
         <v>2.75</v>
       </c>
       <c r="V23">
-        <f>AVERAGE(H23,O23)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="W23">
-        <f>SUM(I23,P23)</f>
+        <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>31</v>
       </c>
@@ -5861,15 +8094,15 @@
         <v>3</v>
       </c>
       <c r="G24" s="2">
-        <f>AVERAGE(C24,E24)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H24" s="2">
-        <f>AVERAGE(D24,F24)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="I24" s="2">
-        <f>SUM(G24:H24)</f>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="J24" s="2">
@@ -5885,47 +8118,47 @@
         <v>2</v>
       </c>
       <c r="N24">
-        <f>AVERAGE(J24,L24)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="O24">
-        <f>AVERAGE(K24,M24)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P24">
-        <f>SUM(N24:O24)</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="Q24">
-        <f>N24-G24</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R24">
-        <f>O24-H24</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S24" s="3">
-        <f>SUM(G24,N24)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T24" s="3">
-        <f>SUM(H24,O24)</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="U24">
-        <f>AVERAGE(C24,E24,J24,L24)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V24">
-        <f>AVERAGE(H24,O24)</f>
+        <f t="shared" si="11"/>
         <v>2.25</v>
       </c>
       <c r="W24">
-        <f>SUM(I24,P24)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>32</v>
       </c>
@@ -5945,15 +8178,15 @@
         <v>3</v>
       </c>
       <c r="G25" s="2">
-        <f>AVERAGE(C25,E25)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H25" s="2">
-        <f>AVERAGE(D25,F25)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="I25" s="2">
-        <f>SUM(G25:H25)</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="J25" s="2">
@@ -5969,47 +8202,47 @@
         <v>4</v>
       </c>
       <c r="N25">
-        <f>AVERAGE(J25,L25)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O25">
-        <f>AVERAGE(K25,M25)</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="P25">
-        <f>SUM(N25:O25)</f>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="Q25">
-        <f>N25-G25</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>O25-H25</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S25" s="3">
-        <f>SUM(G25,N25)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="T25" s="3">
-        <f>SUM(H25,O25)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="U25">
-        <f>AVERAGE(C25,E25,J25,L25)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="V25">
-        <f>AVERAGE(H25,O25)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W25">
-        <f>SUM(I25,P25)</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>33</v>
       </c>
@@ -6029,15 +8262,15 @@
         <v>2</v>
       </c>
       <c r="G26" s="2">
-        <f>AVERAGE(C26,E26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H26" s="2">
-        <f>AVERAGE(D26,F26)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I26" s="2">
-        <f>SUM(G26:H26)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="J26" s="2">
@@ -6053,47 +8286,47 @@
         <v>2</v>
       </c>
       <c r="N26">
-        <f>AVERAGE(J26,L26)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="O26">
-        <f>AVERAGE(K26,M26)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P26">
-        <f>SUM(N26:O26)</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="Q26">
-        <f>N26-G26</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R26">
-        <f>O26-H26</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="S26" s="3">
-        <f>SUM(G26,N26)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T26" s="3">
-        <f>SUM(H26,O26)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="U26">
-        <f>AVERAGE(C26,E26,J26,L26)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V26">
-        <f>AVERAGE(H26,O26)</f>
+        <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
       <c r="W26">
-        <f>SUM(I26,P26)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>34</v>
       </c>
@@ -6113,15 +8346,15 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <f>AVERAGE(C27,E27)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H27" s="2">
-        <f>AVERAGE(D27,F27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I27" s="2">
-        <f>SUM(G27:H27)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="J27" s="2">
@@ -6137,47 +8370,47 @@
         <v>2</v>
       </c>
       <c r="N27">
-        <f>AVERAGE(J27,L27)</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="O27">
-        <f>AVERAGE(K27,M27)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P27">
-        <f>SUM(N27:O27)</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="Q27">
-        <f>N27-G27</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="R27">
-        <f>O27-H27</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S27" s="3">
-        <f>SUM(G27,N27)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="T27" s="3">
-        <f>SUM(H27,O27)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="U27">
-        <f>AVERAGE(C27,E27,J27,L27)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V27">
-        <f>AVERAGE(H27,O27)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="W27">
-        <f>SUM(I27,P27)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>36</v>
       </c>
@@ -6197,15 +8430,15 @@
         <v>2</v>
       </c>
       <c r="G28" s="2">
-        <f>AVERAGE(C28,E28)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H28" s="2">
-        <f>AVERAGE(D28,F28)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I28" s="2">
-        <f>SUM(G28:H28)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="J28" s="2">
@@ -6221,47 +8454,47 @@
         <v>3</v>
       </c>
       <c r="N28">
-        <f>AVERAGE(J28,L28)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O28">
-        <f>AVERAGE(K28,M28)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P28">
-        <f>SUM(N28:O28)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q28">
-        <f>N28-G28</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R28">
-        <f>O28-H28</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S28" s="3">
-        <f>SUM(G28,N28)</f>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="T28" s="3">
-        <f>SUM(H28,O28)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="U28">
-        <f>AVERAGE(C28,E28,J28,L28)</f>
+        <f t="shared" si="10"/>
         <v>2.75</v>
       </c>
       <c r="V28">
-        <f>AVERAGE(H28,O28)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="W28">
-        <f>SUM(I28,P28)</f>
+        <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>37</v>
       </c>
@@ -6281,15 +8514,15 @@
         <v>2</v>
       </c>
       <c r="G29" s="2">
-        <f>AVERAGE(C29,E29)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H29" s="2">
-        <f>AVERAGE(D29,F29)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="I29" s="2">
-        <f>SUM(G29:H29)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J29" s="2">
@@ -6305,47 +8538,47 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <f>AVERAGE(J29,L29)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="O29">
-        <f>AVERAGE(K29,M29)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P29">
-        <f>SUM(N29:O29)</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="Q29">
-        <f>N29-G29</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f>O29-H29</f>
+        <f t="shared" si="7"/>
         <v>-1.5</v>
       </c>
       <c r="S29" s="3">
-        <f>SUM(G29,N29)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="T29" s="3">
-        <f>SUM(H29,O29)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="U29">
-        <f>AVERAGE(C29,E29,J29,L29)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="V29">
-        <f>AVERAGE(H29,O29)</f>
+        <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
       <c r="W29">
-        <f>SUM(I29,P29)</f>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>38</v>
       </c>
@@ -6365,15 +8598,15 @@
         <v>2</v>
       </c>
       <c r="G30" s="2">
-        <f>AVERAGE(C30,E30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H30" s="2">
-        <f>AVERAGE(D30,F30)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I30" s="2">
-        <f>SUM(G30:H30)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J30" s="2">
@@ -6389,47 +8622,47 @@
         <v>3</v>
       </c>
       <c r="N30">
-        <f>AVERAGE(J30,L30)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O30">
-        <f>AVERAGE(K30,M30)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="P30">
-        <f>SUM(N30:O30)</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="Q30">
-        <f>N30-G30</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="R30">
-        <f>O30-H30</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="S30" s="3">
-        <f>SUM(G30,N30)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="T30" s="3">
-        <f>SUM(H30,O30)</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="U30">
-        <f>AVERAGE(C30,E30,J30,L30)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="V30">
-        <f>AVERAGE(H30,O30)</f>
+        <f t="shared" si="11"/>
         <v>2.25</v>
       </c>
       <c r="W30">
-        <f>SUM(I30,P30)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>39</v>
       </c>
@@ -6449,15 +8682,15 @@
         <v>3</v>
       </c>
       <c r="G31" s="2">
-        <f>AVERAGE(C31,E31)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H31" s="2">
-        <f>AVERAGE(D31,F31)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I31" s="2">
-        <f>SUM(G31:H31)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J31" s="2">
@@ -6473,47 +8706,47 @@
         <v>4</v>
       </c>
       <c r="N31">
-        <f>AVERAGE(J31,L31)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O31">
-        <f>AVERAGE(K31,M31)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P31">
-        <f>SUM(N31:O31)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q31">
-        <f>N31-G31</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f>O31-H31</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S31" s="3">
-        <f>SUM(G31,N31)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="T31" s="3">
-        <f>SUM(H31,O31)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="U31">
-        <f>AVERAGE(C31,E31,J31,L31)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="V31">
-        <f>AVERAGE(H31,O31)</f>
+        <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
       <c r="W31">
-        <f>SUM(I31,P31)</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>40</v>
       </c>
@@ -6533,15 +8766,15 @@
         <v>2</v>
       </c>
       <c r="G32" s="2">
-        <f>AVERAGE(C32,E32)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H32" s="2">
-        <f>AVERAGE(D32,F32)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I32" s="2">
-        <f>SUM(G32:H32)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="J32" s="2">
@@ -6557,47 +8790,47 @@
         <v>2</v>
       </c>
       <c r="N32">
-        <f>AVERAGE(J32,L32)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O32">
-        <f>AVERAGE(K32,M32)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P32">
-        <f>SUM(N32:O32)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q32">
-        <f>N32-G32</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f>O32-H32</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="S32" s="3">
-        <f>SUM(G32,N32)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="T32" s="3">
-        <f>SUM(H32,O32)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="U32">
-        <f>AVERAGE(C32,E32,J32,L32)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V32">
-        <f>AVERAGE(H32,O32)</f>
+        <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
       <c r="W32">
-        <f>SUM(I32,P32)</f>
+        <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>41</v>
       </c>
@@ -6617,15 +8850,15 @@
         <v>3</v>
       </c>
       <c r="G33" s="2">
-        <f>AVERAGE(C33,E33)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H33" s="2">
-        <f>AVERAGE(D33,F33)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="I33" s="2">
-        <f>SUM(G33:H33)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="J33" s="2">
@@ -6641,47 +8874,47 @@
         <v>3</v>
       </c>
       <c r="N33">
-        <f>AVERAGE(J33,L33)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O33">
-        <f>AVERAGE(K33,M33)</f>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="P33">
-        <f>SUM(N33:O33)</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="Q33">
-        <f>N33-G33</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="R33">
-        <f>O33-H33</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <f>SUM(G33,N33)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="T33" s="3">
-        <f>SUM(H33,O33)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="U33">
-        <f>AVERAGE(C33,E33,J33,L33)</f>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
       <c r="V33">
-        <f>AVERAGE(H33,O33)</f>
+        <f t="shared" si="11"/>
         <v>3.5</v>
       </c>
       <c r="W33">
-        <f>SUM(I33,P33)</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42</v>
       </c>
@@ -6701,15 +8934,15 @@
         <v>3</v>
       </c>
       <c r="G34" s="2">
-        <f>AVERAGE(C34,E34)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H34" s="2">
-        <f>AVERAGE(D34,F34)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I34" s="2">
-        <f>SUM(G34:H34)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J34" s="2">
@@ -6725,47 +8958,47 @@
         <v>3</v>
       </c>
       <c r="N34">
-        <f>AVERAGE(J34,L34)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O34">
-        <f>AVERAGE(K34,M34)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P34">
-        <f>SUM(N34:O34)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q34">
-        <f>N34-G34</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f>O34-H34</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S34" s="3">
-        <f>SUM(G34,N34)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="T34" s="3">
-        <f>SUM(H34,O34)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="U34">
-        <f>AVERAGE(C34,E34,J34,L34)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V34">
-        <f>AVERAGE(H34,O34)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W34">
-        <f>SUM(I34,P34)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43</v>
       </c>
@@ -6785,15 +9018,15 @@
         <v>2</v>
       </c>
       <c r="G35" s="2">
-        <f>AVERAGE(C35,E35)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H35" s="2">
-        <f>AVERAGE(D35,F35)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I35" s="2">
-        <f>SUM(G35:H35)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="J35" s="2">
@@ -6809,47 +9042,47 @@
         <v>3</v>
       </c>
       <c r="N35">
-        <f>AVERAGE(J35,L35)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="O35">
-        <f>AVERAGE(K35,M35)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="P35">
-        <f>SUM(N35:O35)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q35">
-        <f>N35-G35</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R35">
-        <f>O35-H35</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S35" s="3">
-        <f>SUM(G35,N35)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T35" s="3">
-        <f>SUM(H35,O35)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="U35">
-        <f>AVERAGE(C35,E35,J35,L35)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V35">
-        <f>AVERAGE(H35,O35)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="W35">
-        <f>SUM(I35,P35)</f>
+        <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44</v>
       </c>
@@ -6869,15 +9102,15 @@
         <v>3</v>
       </c>
       <c r="G36" s="2">
-        <f>AVERAGE(C36,E36)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H36" s="2">
-        <f>AVERAGE(D36,F36)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I36" s="2">
-        <f>SUM(G36:H36)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J36" s="2">
@@ -6893,47 +9126,47 @@
         <v>3</v>
       </c>
       <c r="N36">
-        <f>AVERAGE(J36,L36)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="O36">
-        <f>AVERAGE(K36,M36)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P36">
-        <f>SUM(N36:O36)</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="Q36">
-        <f>N36-G36</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R36">
-        <f>O36-H36</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S36" s="3">
-        <f>SUM(G36,N36)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T36" s="3">
-        <f>SUM(H36,O36)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="U36">
-        <f>AVERAGE(C36,E36,J36,L36)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V36">
-        <f>AVERAGE(H36,O36)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W36">
-        <f>SUM(I36,P36)</f>
+        <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45</v>
       </c>
@@ -6953,15 +9186,15 @@
         <v>3</v>
       </c>
       <c r="G37" s="2">
-        <f>AVERAGE(C37,E37)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H37" s="2">
-        <f>AVERAGE(D37,F37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I37" s="2">
-        <f>SUM(G37:H37)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J37" s="2">
@@ -6977,47 +9210,47 @@
         <v>3</v>
       </c>
       <c r="N37">
-        <f>AVERAGE(J37,L37)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O37">
-        <f>AVERAGE(K37,M37)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P37">
-        <f>SUM(N37:O37)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q37">
-        <f>N37-G37</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R37">
-        <f>O37-H37</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S37" s="3">
-        <f>SUM(G37,N37)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="T37" s="3">
-        <f>SUM(H37,O37)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="U37">
-        <f>AVERAGE(C37,E37,J37,L37)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="V37">
-        <f>AVERAGE(H37,O37)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W37">
-        <f>SUM(I37,P37)</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>46</v>
       </c>
@@ -7037,15 +9270,15 @@
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <f>AVERAGE(C38,E38)</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="H38" s="2">
-        <f>AVERAGE(D38,F38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I38" s="2">
-        <f>SUM(G38:H38)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="J38" s="2">
@@ -7061,47 +9294,47 @@
         <v>4</v>
       </c>
       <c r="N38">
-        <f>AVERAGE(J38,L38)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O38">
-        <f>AVERAGE(K38,M38)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P38">
-        <f>SUM(N38:O38)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q38">
-        <f>N38-G38</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R38">
-        <f>O38-H38</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S38" s="3">
-        <f>SUM(G38,N38)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T38" s="3">
-        <f>SUM(H38,O38)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="U38">
-        <f>AVERAGE(C38,E38,J38,L38)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V38">
-        <f>AVERAGE(H38,O38)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="W38">
-        <f>SUM(I38,P38)</f>
+        <f t="shared" si="12"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>47</v>
       </c>
@@ -7121,15 +9354,15 @@
         <v>4</v>
       </c>
       <c r="G39" s="2">
-        <f>AVERAGE(C39,E39)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H39" s="2">
-        <f>AVERAGE(D39,F39)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="I39" s="2">
-        <f>SUM(G39:H39)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="J39" s="2">
@@ -7145,47 +9378,47 @@
         <v>3</v>
       </c>
       <c r="N39">
-        <f>AVERAGE(J39,L39)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O39">
-        <f>AVERAGE(K39,M39)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P39">
-        <f>SUM(N39:O39)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q39">
-        <f>N39-G39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R39">
-        <f>O39-H39</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S39" s="3">
-        <f>SUM(G39,N39)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="T39" s="3">
-        <f>SUM(H39,O39)</f>
+        <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
       <c r="U39">
-        <f>AVERAGE(C39,E39,J39,L39)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="V39">
-        <f>AVERAGE(H39,O39)</f>
+        <f t="shared" si="11"/>
         <v>3.25</v>
       </c>
       <c r="W39">
-        <f>SUM(I39,P39)</f>
+        <f t="shared" si="12"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>48</v>
       </c>
@@ -7205,15 +9438,15 @@
         <v>3</v>
       </c>
       <c r="G40" s="2">
-        <f>AVERAGE(C40,E40)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H40" s="2">
-        <f>AVERAGE(D40,F40)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I40" s="2">
-        <f>SUM(G40:H40)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J40" s="2">
@@ -7229,47 +9462,47 @@
         <v>3</v>
       </c>
       <c r="N40">
-        <f>AVERAGE(J40,L40)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="O40">
-        <f>AVERAGE(K40,M40)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P40">
-        <f>SUM(N40:O40)</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="Q40">
-        <f>N40-G40</f>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="R40">
-        <f>O40-H40</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S40" s="3">
-        <f>SUM(G40,N40)</f>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="T40" s="3">
-        <f>SUM(H40,O40)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="U40">
-        <f>AVERAGE(C40,E40,J40,L40)</f>
+        <f t="shared" si="10"/>
         <v>2.75</v>
       </c>
       <c r="V40">
-        <f>AVERAGE(H40,O40)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W40">
-        <f>SUM(I40,P40)</f>
+        <f t="shared" si="12"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>49</v>
       </c>
@@ -7289,15 +9522,15 @@
         <v>4</v>
       </c>
       <c r="G41" s="2">
-        <f>AVERAGE(C41,E41)</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="H41" s="2">
-        <f>AVERAGE(D41,F41)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I41" s="2">
-        <f>SUM(G41:H41)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="J41" s="2">
@@ -7313,47 +9546,47 @@
         <v>4</v>
       </c>
       <c r="N41">
-        <f>AVERAGE(J41,L41)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O41">
-        <f>AVERAGE(K41,M41)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P41">
-        <f>SUM(N41:O41)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q41">
-        <f>N41-G41</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <f>O41-H41</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <f>SUM(G41,N41)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T41" s="3">
-        <f>SUM(H41,O41)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="U41">
-        <f>AVERAGE(C41,E41,J41,L41)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V41">
-        <f>AVERAGE(H41,O41)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="W41">
-        <f>SUM(I41,P41)</f>
+        <f t="shared" si="12"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>50</v>
       </c>
@@ -7373,15 +9606,15 @@
         <v>2</v>
       </c>
       <c r="G42" s="2">
-        <f>AVERAGE(C42,E42)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H42" s="2">
-        <f>AVERAGE(D42,F42)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I42" s="2">
-        <f>SUM(G42:H42)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="J42" s="2">
@@ -7397,47 +9630,47 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <f>AVERAGE(J42,L42)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O42">
-        <f>AVERAGE(K42,M42)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P42">
-        <f>SUM(N42:O42)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q42">
-        <f>N42-G42</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f>O42-H42</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="S42" s="3">
-        <f>SUM(G42,N42)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="T42" s="3">
-        <f>SUM(H42,O42)</f>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="U42">
-        <f>AVERAGE(C42,E42,J42,L42)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V42">
-        <f>AVERAGE(H42,O42)</f>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="W42">
-        <f>SUM(I42,P42)</f>
+        <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>51</v>
       </c>
@@ -7457,15 +9690,15 @@
         <v>4</v>
       </c>
       <c r="G43" s="2">
-        <f>AVERAGE(C43,E43)</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="H43" s="2">
-        <f>AVERAGE(D43,F43)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I43" s="2">
-        <f>SUM(G43:H43)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="J43" s="2">
@@ -7481,47 +9714,47 @@
         <v>4</v>
       </c>
       <c r="N43">
-        <f>AVERAGE(J43,L43)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O43">
-        <f>AVERAGE(K43,M43)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P43">
-        <f>SUM(N43:O43)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q43">
-        <f>N43-G43</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R43">
-        <f>O43-H43</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <f>SUM(G43,N43)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T43" s="3">
-        <f>SUM(H43,O43)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="U43">
-        <f>AVERAGE(C43,E43,J43,L43)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V43">
-        <f>AVERAGE(H43,O43)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="W43">
-        <f>SUM(I43,P43)</f>
+        <f t="shared" si="12"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>52</v>
       </c>
@@ -7541,15 +9774,15 @@
         <v>3</v>
       </c>
       <c r="G44" s="2">
-        <f>AVERAGE(C44,E44)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H44" s="2">
-        <f>AVERAGE(D44,F44)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I44" s="2">
-        <f>SUM(G44:H44)</f>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="J44" s="2">
@@ -7565,47 +9798,47 @@
         <v>3</v>
       </c>
       <c r="N44">
-        <f>AVERAGE(J44,L44)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O44">
-        <f>AVERAGE(K44,M44)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P44">
-        <f>SUM(N44:O44)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q44">
-        <f>N44-G44</f>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="R44">
-        <f>O44-H44</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <f>SUM(G44,N44)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T44" s="3">
-        <f>SUM(H44,O44)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="U44">
-        <f>AVERAGE(C44,E44,J44,L44)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V44">
-        <f>AVERAGE(H44,O44)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="W44">
-        <f>SUM(I44,P44)</f>
+        <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>53</v>
       </c>
@@ -7625,15 +9858,15 @@
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <f>AVERAGE(C45,E45)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="H45" s="2">
-        <f>AVERAGE(D45,F45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I45" s="2">
-        <f>SUM(G45:H45)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="J45" s="2">
@@ -7649,47 +9882,47 @@
         <v>3</v>
       </c>
       <c r="N45">
-        <f>AVERAGE(J45,L45)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O45">
-        <f>AVERAGE(K45,M45)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P45">
-        <f>SUM(N45:O45)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q45">
-        <f>N45-G45</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="R45">
-        <f>O45-H45</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S45" s="3">
-        <f>SUM(G45,N45)</f>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="T45" s="3">
-        <f>SUM(H45,O45)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="U45">
-        <f>AVERAGE(C45,E45,J45,L45)</f>
+        <f t="shared" si="10"/>
         <v>2.75</v>
       </c>
       <c r="V45">
-        <f>AVERAGE(H45,O45)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="W45">
-        <f>SUM(I45,P45)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>55</v>
       </c>
@@ -7709,15 +9942,15 @@
         <v>3</v>
       </c>
       <c r="G46" s="2">
-        <f>AVERAGE(C46,E46)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H46" s="2">
-        <f>AVERAGE(D46,F46)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="I46" s="2">
-        <f>SUM(G46:H46)</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="J46" s="2">
@@ -7733,47 +9966,47 @@
         <v>4</v>
       </c>
       <c r="N46">
-        <f>AVERAGE(J46,L46)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="O46">
-        <f>AVERAGE(K46,M46)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P46">
-        <f>SUM(N46:O46)</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="Q46">
-        <f>N46-G46</f>
+        <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <f>O46-H46</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="S46" s="3">
-        <f>SUM(G46,N46)</f>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="T46" s="3">
-        <f>SUM(H46,O46)</f>
+        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
       <c r="U46">
-        <f>AVERAGE(C46,E46,J46,L46)</f>
+        <f t="shared" si="10"/>
         <v>2.75</v>
       </c>
       <c r="V46">
-        <f>AVERAGE(H46,O46)</f>
+        <f t="shared" si="11"/>
         <v>3.75</v>
       </c>
       <c r="W46">
-        <f>SUM(I46,P46)</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -7793,15 +10026,15 @@
         <v>2</v>
       </c>
       <c r="G47" s="2">
-        <f>AVERAGE(C47,E47)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H47" s="2">
-        <f>AVERAGE(D47,F47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I47" s="2">
-        <f>SUM(G47:H47)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J47" s="2">
@@ -7817,47 +10050,47 @@
         <v>2</v>
       </c>
       <c r="N47">
-        <f>AVERAGE(J47,L47)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O47">
-        <f>AVERAGE(K47,M47)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="P47">
-        <f>SUM(N47:O47)</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="Q47">
-        <f>N47-G47</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="R47">
-        <f>O47-H47</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="S47" s="3">
-        <f>SUM(G47,N47)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="T47" s="3">
-        <f>SUM(H47,O47)</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
       <c r="U47">
-        <f>AVERAGE(C47,E47,J47,L47)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="V47">
-        <f>AVERAGE(H47,O47)</f>
+        <f t="shared" si="11"/>
         <v>2.25</v>
       </c>
       <c r="W47">
-        <f>SUM(I47,P47)</f>
+        <f t="shared" si="12"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -7877,15 +10110,15 @@
         <v>2</v>
       </c>
       <c r="G48" s="2">
-        <f>AVERAGE(C48,E48)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H48" s="2">
-        <f>AVERAGE(D48,F48)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I48" s="2">
-        <f>SUM(G48:H48)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J48" s="2">
@@ -7901,47 +10134,47 @@
         <v>3</v>
       </c>
       <c r="N48">
-        <f>AVERAGE(J48,L48)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="O48">
-        <f>AVERAGE(K48,M48)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P48">
-        <f>SUM(N48:O48)</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="Q48">
-        <f>N48-G48</f>
+        <f t="shared" si="6"/>
         <v>-1.5</v>
       </c>
       <c r="R48">
-        <f>O48-H48</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S48" s="3">
-        <f>SUM(G48,N48)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="T48" s="3">
-        <f>SUM(H48,O48)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="U48">
-        <f>AVERAGE(C48,E48,J48,L48)</f>
+        <f t="shared" si="10"/>
         <v>3.25</v>
       </c>
       <c r="V48">
-        <f>AVERAGE(H48,O48)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="W48">
-        <f>SUM(I48,P48)</f>
+        <f t="shared" si="12"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>58</v>
       </c>
@@ -7961,15 +10194,15 @@
         <v>4</v>
       </c>
       <c r="G49" s="2">
-        <f>AVERAGE(C49,E49)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H49" s="2">
-        <f>AVERAGE(D49,F49)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I49" s="2">
-        <f>SUM(G49:H49)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J49" s="2">
@@ -7985,43 +10218,43 @@
         <v>4</v>
       </c>
       <c r="N49">
-        <f>AVERAGE(J49,L49)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O49">
-        <f>AVERAGE(K49,M49)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P49">
-        <f>SUM(N49:O49)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q49">
-        <f>N49-G49</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R49">
-        <f>O49-H49</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <f>SUM(G49,N49)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="T49" s="3">
-        <f>SUM(H49,O49)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="U49">
-        <f>AVERAGE(C49,E49,J49,L49)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="V49">
-        <f>AVERAGE(H49,O49)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="W49">
-        <f>SUM(I49,P49)</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
@@ -8032,16 +10265,1696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAEC00F-827E-9C42-8FC9-E6ECF4BF73E1}">
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>SUM(C2:D2)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2">
+        <f>SUM(F2:G2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I2">
+        <f>SUM(H2,E2)</f>
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E49" si="0">SUM(C3:D3)</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3.5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H49" si="1">SUM(F3:G3)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I49" si="2">SUM(H3,E3)</f>
+        <v>8.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGEIF($B:$B, "blue",E:E)</f>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGEIF($B:$B, "blue",H:H)</f>
+        <v>5.46</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGEIF($B:$B, "blue",I:I)</f>
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGEIF($B:$B, "green",E:E)</f>
+        <v>5.8913043478260869</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGEIF($B:$B, "green",H:H)</f>
+        <v>5.8043478260869561</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGEIF($B:$B, "green",I:I)</f>
+        <v>11.695652173913043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="4">
+        <f>AVERAGEIF($B:$B,"blue",$C:$C)</f>
+        <v>2.52</v>
+      </c>
+      <c r="N7" s="4">
+        <f>AVERAGEIF($B:$B,"blue",D:D)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4">
+        <f>AVERAGEIF($B:$B,"green",C:C)</f>
+        <v>3.2391304347826089</v>
+      </c>
+      <c r="N8" s="4">
+        <f>AVERAGEIF($B:$B,"green",$D:$D)</f>
+        <v>2.652173913043478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="4">
+        <f>AVERAGEIF($B:$B,"blue",F:F)</f>
+        <v>2.82</v>
+      </c>
+      <c r="N9" s="4">
+        <f>AVERAGEIF($B:$B,"blue",G:G)</f>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="4">
+        <f>AVERAGEIF($B:$B,"green",F:F)</f>
+        <v>3.0652173913043477</v>
+      </c>
+      <c r="N10" s="4">
+        <f>AVERAGEIF($B:$B,"green",G:G)</f>
+        <v>2.7391304347826089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F12">
+        <v>1.5</v>
+      </c>
+      <c r="G12">
+        <v>1.5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1.5</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3.5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F15">
+        <v>3.5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>3.5</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>2.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>3.5</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2.5</v>
+      </c>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>1.5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+      <c r="G23">
+        <v>1.5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2.5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F24">
+        <v>3.5</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2.5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>3.5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1.5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F26">
+        <v>3.5</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2.5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F27">
+        <v>1.5</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2.5</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2.5</v>
+      </c>
+      <c r="D29">
+        <v>2.5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>2.5</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2.5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1.5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>3.5</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>3.5</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1.5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F35">
+        <v>3.5</v>
+      </c>
+      <c r="G35">
+        <v>2.5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>3.5</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3.5</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>3.5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>3.5</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3.5</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1.5</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>3.5</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>2.5</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>53</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2.5</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>3.5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="F46">
+        <v>2.5</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2.5</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>57</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>2.5</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>58</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A6340A-02C4-0F44-AFDE-676687A30617}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="83" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="83" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>26</v>
       </c>
@@ -8055,7 +11968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8080,7 +11993,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -8102,7 +12015,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -8127,7 +12040,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -8149,7 +12062,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -8166,7 +12079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -8185,7 +12098,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>

--- a/study2/order_study_data.xlsx
+++ b/study2/order_study_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciangoon/thinkinghats/study2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDD6313-4B84-4B4D-9A28-2BDB2651F6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B45382-4B8E-7545-BB44-12F1A9D4A8C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13900" activeTab="2" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19500" activeTab="3" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="46">
   <si>
     <t>pid</t>
   </si>
@@ -3772,6 +3772,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -12487,15 +12488,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>584201</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:colOff>546101</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12510,7 +12511,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20219795">
-          <a:off x="11620501" y="3390899"/>
+          <a:off x="11582401" y="3060700"/>
           <a:ext cx="1346200" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12557,15 +12558,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609602</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:rowOff>101598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>304802</xdr:colOff>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:rowOff>63498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12580,7 +12581,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20219795">
-          <a:off x="12992102" y="4559299"/>
+          <a:off x="12915901" y="4571998"/>
           <a:ext cx="1346200" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13016,7 +13017,378 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DB4AC9-F70F-304E-B41F-0C19566E0A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19336390">
+          <a:off x="23956434" y="4317999"/>
+          <a:ext cx="1354667" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Explore-first</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>254002</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>825502</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77517E2-CAAA-CF42-BBE6-FE5CCA320DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18750926">
+          <a:off x="23097068" y="8953499"/>
+          <a:ext cx="1350433" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Exploit-first</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>184151</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>755651</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598B4FEC-95D6-2C48-9B81-486F30A194FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18631669">
+          <a:off x="23854834" y="8551333"/>
+          <a:ext cx="1354667" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Explore-first</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04038</cdr:x>
+      <cdr:y>0.69711</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20988</cdr:x>
+      <cdr:y>0.79985</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E46BCC0-78A1-9C41-A553-5325C9925830}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19438803">
+          <a:off x="321734" y="3877735"/>
+          <a:ext cx="1350433" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Exploit-first</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17616,15 +17988,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAEC00F-827E-9C42-8FC9-E6ECF4BF73E1}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="J4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17653,7 +18025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>7</v>
       </c>
@@ -17693,8 +18065,11 @@
       <c r="O2" t="s">
         <v>35</v>
       </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -17740,8 +18115,14 @@
         <f>AVERAGEIF($B:$B, "blue",I:I)</f>
         <v>10.48</v>
       </c>
+      <c r="R3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>9</v>
       </c>
@@ -17787,8 +18168,14 @@
         <f>AVERAGEIF($B:$B, "green",I:I)</f>
         <v>11.695652173913043</v>
       </c>
+      <c r="R4">
+        <v>10.48</v>
+      </c>
+      <c r="S4">
+        <v>11.695652173913043</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -17820,7 +18207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -17860,7 +18247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -17906,7 +18293,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>13</v>
       </c>
@@ -17950,7 +18337,7 @@
         <v>2.652173913043478</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>14</v>
       </c>
@@ -17996,7 +18383,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>15</v>
       </c>
@@ -18040,7 +18427,7 @@
         <v>2.7391304347826089</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -18072,7 +18459,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -18104,7 +18491,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>18</v>
       </c>
@@ -18136,7 +18523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>19</v>
       </c>
@@ -18168,7 +18555,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -18200,7 +18587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>21</v>
       </c>
@@ -19298,8 +19685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A943ED1-1F2B-D54B-9910-9A5C26878873}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="Z20" zoomScale="114" workbookViewId="0">
+      <selection activeCell="AP56" sqref="AP56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/study2/order_study_data.xlsx
+++ b/study2/order_study_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/triciangoon/thinkinghats/study2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trici\Documents\GitHub\thinkinghats\study2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B45382-4B8E-7545-BB44-12F1A9D4A8C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD02754-D5D9-4221-9BBC-5F15E3D09835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19500" activeTab="3" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2199,7 +2199,7 @@
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
-                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -2335,7 +2335,7 @@
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
-                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -2477,7 +2477,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -2528,14 +2528,14 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600">
-                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Sum Rating</a:t>
                 </a:r>
@@ -2562,7 +2562,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -2594,7 +2594,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -12307,15 +12307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>169334</xdr:colOff>
+      <xdr:colOff>93134</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12330,8 +12330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10126134" y="6350000"/>
-          <a:ext cx="1269999" cy="474133"/>
+          <a:off x="10151534" y="6451600"/>
+          <a:ext cx="1278466" cy="474133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12365,7 +12365,7 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Originality</a:t>
           </a:r>
@@ -12377,13 +12377,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>169334</xdr:colOff>
+      <xdr:colOff>93134</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
@@ -12400,8 +12400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10126134" y="4080933"/>
-          <a:ext cx="1269999" cy="474133"/>
+          <a:off x="10151534" y="4080933"/>
+          <a:ext cx="1278466" cy="474133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12435,7 +12435,7 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Avenir Next LT Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Utility</a:t>
           </a:r>
@@ -13696,9 +13696,9 @@
       <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>9</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>14</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>15</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>18</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>19</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>21</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>28</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>30</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>31</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>32</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>33</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>34</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>36</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>37</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>38</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>39</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>40</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>46</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>47</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>48</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>49</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>50</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>51</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>52</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>53</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>55</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>58</v>
       </c>
@@ -17811,13 +17811,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A6340A-02C4-0F44-AFDE-676687A30617}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A10" zoomScale="83" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>26</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -17990,13 +17990,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAEC00F-827E-9C42-8FC9-E6ECF4BF73E1}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>9</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>11.695652173913043</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>2.652173913043478</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>14</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>15</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>2.7391304347826089</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>18</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>19</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -18587,7 +18587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>21</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>28</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>30</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>31</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>32</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>33</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>34</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>36</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>37</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>38</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>39</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>40</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41</v>
       </c>
@@ -19163,7 +19163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>46</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>47</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>48</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>49</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>50</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>51</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>52</v>
       </c>
@@ -19515,7 +19515,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>53</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>55</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -19611,7 +19611,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>58</v>
       </c>
@@ -19685,13 +19685,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A943ED1-1F2B-D54B-9910-9A5C26878873}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z20" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="Z26" zoomScale="114" workbookViewId="0">
       <selection activeCell="AP56" sqref="AP56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>11</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>13</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>16</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>17</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>21</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>23</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>25</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>26</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>30</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>31</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>33</v>
       </c>
@@ -20424,7 +20424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>36</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>37</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>40</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>41</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>46</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>49</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>51</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>52</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>53</v>
       </c>
@@ -20874,7 +20874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>55</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>7</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>9</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>12</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>14</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>18</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>19</v>
       </c>
@@ -21151,7 +21151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -21194,7 +21194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>24</v>
       </c>
@@ -21237,7 +21237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>27</v>
       </c>
@@ -21280,7 +21280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>28</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -21366,7 +21366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -21409,7 +21409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42</v>
       </c>
@@ -21519,7 +21519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43</v>
       </c>
@@ -21557,7 +21557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>47</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>48</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>50</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>58</v>
       </c>
@@ -21858,12 +21858,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L52" t="s">
         <v>40</v>
       </c>
@@ -21871,7 +21871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K53">
         <v>1</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K54">
         <v>1.5</v>
       </c>
@@ -21897,7 +21897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K55">
         <v>2</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K56">
         <v>2.5</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K57">
         <v>3</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K58">
         <v>3.5</v>
       </c>
@@ -21949,7 +21949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K59">
         <v>4</v>
       </c>

--- a/study2/order_study_data.xlsx
+++ b/study2/order_study_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trici\Documents\GitHub\thinkinghats\study2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD02754-D5D9-4221-9BBC-5F15E3D09835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B9A5B-2F14-4C70-9110-1552C424D4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
+    <workbookView minimized="1" xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{845BFFBF-D938-DA46-B34D-49E55728430A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$I$49</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$D$2:$D$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$A$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -13690,7 +13700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C0338E-C052-8145-A484-36452DDC74C2}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
@@ -17811,8 +17821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A6340A-02C4-0F44-AFDE-676687A30617}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="83" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17990,7 +18000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAEC00F-827E-9C42-8FC9-E6ECF4BF73E1}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="C42" zoomScale="75" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
